--- a/conceptlist.xlsx
+++ b/conceptlist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\atlantis_public\indoor_object_taxonomy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\atlantis\atlantis_git\IndoorObjectTaxonomy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="2822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="2823">
   <si>
     <t>Label</t>
   </si>
@@ -7229,9 +7229,6 @@
     <t>stairs</t>
   </si>
   <si>
-    <t>http://scan-net.org/concepts/stairs</t>
-  </si>
-  <si>
     <t>stairway.n.01</t>
   </si>
   <si>
@@ -8490,6 +8487,12 @@
   </si>
   <si>
     <t>broom.n.02</t>
+  </si>
+  <si>
+    <t>stairway</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/2006/03/wn/wn20/instances/synset-stairway-noun-01</t>
   </si>
 </sst>
 </file>
@@ -8809,8 +8812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1087"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="A1:L1087"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="K145" sqref="K145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12155,22 +12158,19 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2400</v>
+        <v>2821</v>
       </c>
       <c r="B143">
         <v>58</v>
       </c>
       <c r="C143" t="s">
-        <v>2401</v>
-      </c>
-      <c r="D143" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
       <c r="F143">
         <v>38</v>
       </c>
       <c r="J143" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="K143" t="s">
         <v>31</v>
@@ -12187,13 +12187,16 @@
         <v>2963</v>
       </c>
       <c r="C144" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2400</v>
+      </c>
+      <c r="J144" t="s">
         <v>2403</v>
       </c>
-      <c r="J144" t="s">
-        <v>2404</v>
-      </c>
       <c r="K144" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L144">
         <v>7</v>
@@ -12416,16 +12419,16 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B155">
         <v>1209</v>
       </c>
       <c r="C155" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D155" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="F155">
         <v>39</v>
@@ -12442,16 +12445,16 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B156">
         <v>2964</v>
       </c>
       <c r="C156" t="s">
+        <v>2407</v>
+      </c>
+      <c r="J156" t="s">
         <v>2408</v>
-      </c>
-      <c r="J156" t="s">
-        <v>2409</v>
       </c>
       <c r="K156" t="s">
         <v>31</v>
@@ -12462,16 +12465,16 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B157">
         <v>2965</v>
       </c>
       <c r="C157" t="s">
+        <v>2410</v>
+      </c>
+      <c r="J157" t="s">
         <v>2411</v>
-      </c>
-      <c r="J157" t="s">
-        <v>2412</v>
       </c>
       <c r="K157" t="s">
         <v>15</v>
@@ -12482,16 +12485,16 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="B158">
         <v>2966</v>
       </c>
       <c r="C158" t="s">
+        <v>2413</v>
+      </c>
+      <c r="J158" t="s">
         <v>2414</v>
-      </c>
-      <c r="J158" t="s">
-        <v>2415</v>
       </c>
       <c r="K158" t="s">
         <v>15</v>
@@ -12502,22 +12505,22 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B159">
         <v>1172</v>
       </c>
       <c r="C159" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D159" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="F159">
         <v>40</v>
       </c>
       <c r="J159" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="K159" t="s">
         <v>31</v>
@@ -12612,22 +12615,22 @@
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="B163">
         <v>1194</v>
       </c>
       <c r="C163" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="D163" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="F163">
         <v>40</v>
       </c>
       <c r="J163" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="K163" t="s">
         <v>31</v>
@@ -14245,10 +14248,10 @@
         <v>2968</v>
       </c>
       <c r="C225" t="s">
+        <v>2420</v>
+      </c>
+      <c r="J225" t="s">
         <v>2421</v>
-      </c>
-      <c r="J225" t="s">
-        <v>2422</v>
       </c>
       <c r="K225" t="s">
         <v>15</v>
@@ -14259,25 +14262,25 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="B226">
         <v>48</v>
       </c>
       <c r="C226" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D226" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="F226">
         <v>40</v>
       </c>
       <c r="H226" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="J226" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="K226" t="s">
         <v>31</v>
@@ -14288,22 +14291,22 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="B227">
         <v>570</v>
       </c>
       <c r="C227" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D227" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="F227">
         <v>37</v>
       </c>
       <c r="J227" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="K227" t="s">
         <v>31</v>
@@ -14314,16 +14317,16 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="B228">
         <v>1252</v>
       </c>
       <c r="C228" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="D228" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="F228">
         <v>37</v>
@@ -14332,7 +14335,7 @@
         <v>201</v>
       </c>
       <c r="J228" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="K228" t="s">
         <v>31</v>
@@ -14343,22 +14346,22 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B229">
         <v>1072</v>
       </c>
       <c r="C229" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D229" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="F229">
         <v>37</v>
       </c>
       <c r="J229" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="K229" t="s">
         <v>31</v>
@@ -14369,22 +14372,22 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="B230">
         <v>1227</v>
       </c>
       <c r="C230" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="D230" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="F230">
         <v>39</v>
       </c>
       <c r="J230" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="K230" t="s">
         <v>31</v>
@@ -14395,16 +14398,16 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="B231">
         <v>1230</v>
       </c>
       <c r="C231" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D231" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="F231">
         <v>37</v>
@@ -14418,22 +14421,22 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="B232">
         <v>1231</v>
       </c>
       <c r="C232" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D232" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="F232">
         <v>40</v>
       </c>
       <c r="J232" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="K232" t="s">
         <v>31</v>
@@ -14444,22 +14447,22 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="B233">
         <v>1234</v>
       </c>
       <c r="C233" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="D233" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="F233">
         <v>40</v>
       </c>
       <c r="J233" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="K233" t="s">
         <v>31</v>
@@ -14470,16 +14473,16 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="B234">
         <v>1264</v>
       </c>
       <c r="C234" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D234" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="F234">
         <v>37</v>
@@ -14488,7 +14491,7 @@
         <v>201</v>
       </c>
       <c r="J234" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="K234" t="s">
         <v>31</v>
@@ -14499,16 +14502,16 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="B235">
         <v>440</v>
       </c>
       <c r="C235" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D235" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="F235">
         <v>37</v>
@@ -14525,22 +14528,22 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="B236">
         <v>480</v>
       </c>
       <c r="C236" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D236" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="F236">
         <v>37</v>
       </c>
       <c r="J236" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="K236" t="s">
         <v>31</v>
@@ -14551,22 +14554,22 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B237">
         <v>506</v>
       </c>
       <c r="C237" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D237" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="F237">
         <v>37</v>
       </c>
       <c r="J237" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="K237" t="s">
         <v>31</v>
@@ -14577,16 +14580,16 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="B238">
         <v>1354</v>
       </c>
       <c r="C238" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D238" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="F238">
         <v>40</v>
@@ -14600,16 +14603,16 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="B239">
         <v>1356</v>
       </c>
       <c r="C239" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D239" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="F239">
         <v>37</v>
@@ -14623,16 +14626,16 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="B240">
         <v>2969</v>
       </c>
       <c r="C240" t="s">
+        <v>2460</v>
+      </c>
+      <c r="J240" t="s">
         <v>2461</v>
-      </c>
-      <c r="J240" t="s">
-        <v>2462</v>
       </c>
       <c r="K240" t="s">
         <v>15</v>
@@ -14643,22 +14646,22 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B241">
         <v>1297</v>
       </c>
       <c r="C241" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D241" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F241">
         <v>37</v>
       </c>
       <c r="J241" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="K241" t="s">
         <v>31</v>
@@ -14675,10 +14678,10 @@
         <v>2970</v>
       </c>
       <c r="C242" t="s">
+        <v>2465</v>
+      </c>
+      <c r="J242" t="s">
         <v>2466</v>
-      </c>
-      <c r="J242" t="s">
-        <v>2467</v>
       </c>
       <c r="K242" t="s">
         <v>15</v>
@@ -14689,28 +14692,28 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="B243">
         <v>65</v>
       </c>
       <c r="C243" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D243" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="F243">
         <v>40</v>
       </c>
       <c r="G243" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="H243" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J243" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="K243" t="s">
         <v>31</v>
@@ -14721,25 +14724,25 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="B244">
         <v>392</v>
       </c>
       <c r="C244" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D244" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="F244">
         <v>40</v>
       </c>
       <c r="G244" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J244" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="K244" t="s">
         <v>31</v>
@@ -14750,16 +14753,16 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B245">
         <v>2971</v>
       </c>
       <c r="C245" t="s">
+        <v>2474</v>
+      </c>
+      <c r="J245" t="s">
         <v>2475</v>
-      </c>
-      <c r="J245" t="s">
-        <v>2476</v>
       </c>
       <c r="K245" t="s">
         <v>15</v>
@@ -14770,16 +14773,16 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B246">
         <v>2972</v>
       </c>
       <c r="C246" t="s">
+        <v>2477</v>
+      </c>
+      <c r="J246" t="s">
         <v>2478</v>
-      </c>
-      <c r="J246" t="s">
-        <v>2479</v>
       </c>
       <c r="K246" t="s">
         <v>15</v>
@@ -14790,25 +14793,25 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="B247">
         <v>726</v>
       </c>
       <c r="C247" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D247" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="F247">
         <v>40</v>
       </c>
       <c r="G247" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J247" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="K247" t="s">
         <v>31</v>
@@ -14880,22 +14883,22 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="B250">
         <v>488</v>
       </c>
       <c r="C250" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D250" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="F250">
         <v>40</v>
       </c>
       <c r="J250" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="K250" t="s">
         <v>31</v>
@@ -14912,7 +14915,7 @@
         <v>919</v>
       </c>
       <c r="C251" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D251" t="s">
         <v>1024</v>
@@ -14924,7 +14927,7 @@
         <v>1024</v>
       </c>
       <c r="J251" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="K251" t="s">
         <v>31</v>
@@ -15002,25 +15005,25 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="B254">
         <v>1206</v>
       </c>
       <c r="C254" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D254" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="F254">
         <v>40</v>
       </c>
       <c r="G254" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J254" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="K254" t="s">
         <v>31</v>
@@ -15031,22 +15034,22 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="B255">
         <v>226</v>
       </c>
       <c r="C255" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D255" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="F255">
         <v>40</v>
       </c>
       <c r="J255" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="K255" t="s">
         <v>31</v>
@@ -15057,22 +15060,22 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="B256">
         <v>1176</v>
       </c>
       <c r="C256" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D256" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="F256">
         <v>40</v>
       </c>
       <c r="J256" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="K256" t="s">
         <v>31</v>
@@ -15083,22 +15086,22 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="B257">
         <v>1309</v>
       </c>
       <c r="C257" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D257" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="F257">
         <v>40</v>
       </c>
       <c r="J257" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="K257" t="s">
         <v>31</v>
@@ -15109,22 +15112,22 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B258">
         <v>621</v>
       </c>
       <c r="C258" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D258" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="F258">
         <v>40</v>
       </c>
       <c r="J258" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="K258" t="s">
         <v>31</v>
@@ -15135,22 +15138,22 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B259">
         <v>997</v>
       </c>
       <c r="C259" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D259" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="F259">
         <v>40</v>
       </c>
       <c r="J259" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="K259" t="s">
         <v>31</v>
@@ -15161,22 +15164,22 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="B260">
         <v>1222</v>
       </c>
       <c r="C260" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D260" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="F260">
         <v>40</v>
       </c>
       <c r="J260" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="K260" t="s">
         <v>31</v>
@@ -15187,25 +15190,25 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="B261">
         <v>1228</v>
       </c>
       <c r="C261" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D261" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="F261">
         <v>40</v>
       </c>
       <c r="G261" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J261" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="K261" t="s">
         <v>31</v>
@@ -15216,22 +15219,22 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B262">
         <v>1229</v>
       </c>
       <c r="C262" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D262" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="F262">
         <v>40</v>
       </c>
       <c r="J262" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="K262" t="s">
         <v>31</v>
@@ -15242,25 +15245,25 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="B263">
         <v>167</v>
       </c>
       <c r="C263" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D263" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="F263">
         <v>40</v>
       </c>
       <c r="G263" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J263" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="K263" t="s">
         <v>31</v>
@@ -15271,22 +15274,22 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="B264">
         <v>563</v>
       </c>
       <c r="C264" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D264" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="F264">
         <v>40</v>
       </c>
       <c r="J264" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="K264" t="s">
         <v>31</v>
@@ -15297,25 +15300,25 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="B265">
         <v>1262</v>
       </c>
       <c r="C265" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="D265" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="F265">
         <v>40</v>
       </c>
       <c r="G265" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J265" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="K265" t="s">
         <v>31</v>
@@ -15326,25 +15329,25 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="B266">
         <v>1279</v>
       </c>
       <c r="C266" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="D266" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="F266">
         <v>40</v>
       </c>
       <c r="G266" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J266" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="K266" t="s">
         <v>31</v>
@@ -15355,25 +15358,25 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="B267">
         <v>1304</v>
       </c>
       <c r="C267" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="D267" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="F267">
         <v>40</v>
       </c>
       <c r="G267" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J267" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="K267" t="s">
         <v>31</v>
@@ -15384,25 +15387,25 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="B268">
         <v>1308</v>
       </c>
       <c r="C268" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="D268" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="F268">
         <v>40</v>
       </c>
       <c r="G268" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J268" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="K268" t="s">
         <v>31</v>
@@ -15413,25 +15416,25 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="B269">
         <v>1324</v>
       </c>
       <c r="C269" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="D269" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="F269">
         <v>40</v>
       </c>
       <c r="G269" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="J269" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="K269" t="s">
         <v>31</v>
@@ -15442,16 +15445,16 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="B270">
         <v>1346</v>
       </c>
       <c r="C270" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="D270" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="F270">
         <v>40</v>
@@ -15460,7 +15463,7 @@
         <v>1024</v>
       </c>
       <c r="J270" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="K270" t="s">
         <v>31</v>
@@ -15471,22 +15474,22 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="B271">
         <v>397</v>
       </c>
       <c r="C271" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="D271" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="F271">
         <v>40</v>
       </c>
       <c r="J271" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="K271" t="s">
         <v>31</v>
@@ -15526,16 +15529,16 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="B273">
         <v>2973</v>
       </c>
       <c r="C273" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="E273" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="J273" t="s">
         <v>831</v>
@@ -15549,16 +15552,16 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="B274">
         <v>2974</v>
       </c>
       <c r="C274" t="s">
+        <v>2532</v>
+      </c>
+      <c r="J274" t="s">
         <v>2533</v>
-      </c>
-      <c r="J274" t="s">
-        <v>2534</v>
       </c>
       <c r="K274" t="s">
         <v>15</v>
@@ -15633,16 +15636,16 @@
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="B277">
         <v>1269</v>
       </c>
       <c r="C277" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="D277" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="F277">
         <v>40</v>
@@ -15662,16 +15665,16 @@
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="B278">
         <v>1357</v>
       </c>
       <c r="C278" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="D278" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="F278">
         <v>40</v>
@@ -15691,16 +15694,16 @@
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B279">
         <v>2975</v>
       </c>
       <c r="C279" t="s">
+        <v>2539</v>
+      </c>
+      <c r="J279" t="s">
         <v>2540</v>
-      </c>
-      <c r="J279" t="s">
-        <v>2541</v>
       </c>
       <c r="K279" t="s">
         <v>15</v>
@@ -15924,16 +15927,16 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B289">
         <v>2979</v>
       </c>
       <c r="C289" t="s">
+        <v>2542</v>
+      </c>
+      <c r="J289" t="s">
         <v>2543</v>
-      </c>
-      <c r="J289" t="s">
-        <v>2544</v>
       </c>
       <c r="K289" t="s">
         <v>15</v>
@@ -15944,22 +15947,22 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B290">
         <v>185</v>
       </c>
       <c r="C290" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="D290" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="F290">
         <v>40</v>
       </c>
       <c r="J290" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="K290" t="s">
         <v>31</v>
@@ -15970,22 +15973,22 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B291">
         <v>356</v>
       </c>
       <c r="C291" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="D291" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="F291">
         <v>40</v>
       </c>
       <c r="J291" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="K291" t="s">
         <v>31</v>
@@ -15996,16 +15999,16 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="B292">
         <v>2980</v>
       </c>
       <c r="C292" t="s">
+        <v>2551</v>
+      </c>
+      <c r="J292" t="s">
         <v>2552</v>
-      </c>
-      <c r="J292" t="s">
-        <v>2553</v>
       </c>
       <c r="K292" t="s">
         <v>15</v>
@@ -16051,16 +16054,16 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="B294">
         <v>2981</v>
       </c>
       <c r="C294" t="s">
+        <v>2554</v>
+      </c>
+      <c r="J294" t="s">
         <v>2555</v>
-      </c>
-      <c r="J294" t="s">
-        <v>2556</v>
       </c>
       <c r="K294" t="s">
         <v>15</v>
@@ -16071,22 +16074,22 @@
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B295">
         <v>1207</v>
       </c>
       <c r="C295" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D295" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="F295">
         <v>40</v>
       </c>
       <c r="J295" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="K295" t="s">
         <v>31</v>
@@ -16360,16 +16363,16 @@
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="B306">
         <v>2982</v>
       </c>
       <c r="C306" t="s">
+        <v>2560</v>
+      </c>
+      <c r="J306" t="s">
         <v>2561</v>
-      </c>
-      <c r="J306" t="s">
-        <v>2562</v>
       </c>
       <c r="K306" t="s">
         <v>15</v>
@@ -16380,22 +16383,22 @@
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="B307">
         <v>1170</v>
       </c>
       <c r="C307" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="D307" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="F307">
         <v>40</v>
       </c>
       <c r="J307" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="K307" t="s">
         <v>31</v>
@@ -16406,16 +16409,16 @@
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="B308">
         <v>2983</v>
       </c>
       <c r="C308" t="s">
+        <v>2566</v>
+      </c>
+      <c r="J308" t="s">
         <v>2567</v>
-      </c>
-      <c r="J308" t="s">
-        <v>2568</v>
       </c>
       <c r="K308" t="s">
         <v>15</v>
@@ -16646,16 +16649,16 @@
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="B320">
         <v>2984</v>
       </c>
       <c r="C320" t="s">
+        <v>2569</v>
+      </c>
+      <c r="J320" t="s">
         <v>2570</v>
-      </c>
-      <c r="J320" t="s">
-        <v>2571</v>
       </c>
       <c r="K320" t="s">
         <v>15</v>
@@ -16666,25 +16669,25 @@
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="B321">
         <v>101</v>
       </c>
       <c r="C321" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="D321" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="F321">
         <v>40</v>
       </c>
       <c r="G321" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="J321" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="K321" t="s">
         <v>31</v>
@@ -16695,16 +16698,16 @@
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="B322">
         <v>2985</v>
       </c>
       <c r="C322" t="s">
+        <v>2575</v>
+      </c>
+      <c r="J322" t="s">
         <v>2576</v>
-      </c>
-      <c r="J322" t="s">
-        <v>2577</v>
       </c>
       <c r="K322" t="s">
         <v>15</v>
@@ -16715,19 +16718,19 @@
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="B323">
         <v>2043</v>
       </c>
       <c r="C323" t="s">
+        <v>2578</v>
+      </c>
+      <c r="H323" t="s">
+        <v>2577</v>
+      </c>
+      <c r="J323" t="s">
         <v>2579</v>
-      </c>
-      <c r="H323" t="s">
-        <v>2578</v>
-      </c>
-      <c r="J323" t="s">
-        <v>2580</v>
       </c>
       <c r="K323" t="s">
         <v>31</v>
@@ -16738,16 +16741,16 @@
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B324">
         <v>2986</v>
       </c>
       <c r="C324" t="s">
+        <v>2581</v>
+      </c>
+      <c r="J324" t="s">
         <v>2582</v>
-      </c>
-      <c r="J324" t="s">
-        <v>2583</v>
       </c>
       <c r="K324" t="s">
         <v>15</v>
@@ -16758,16 +16761,16 @@
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B325">
         <v>2987</v>
       </c>
       <c r="C325" t="s">
+        <v>2584</v>
+      </c>
+      <c r="J325" t="s">
         <v>2585</v>
-      </c>
-      <c r="J325" t="s">
-        <v>2586</v>
       </c>
       <c r="K325" t="s">
         <v>15</v>
@@ -16836,16 +16839,16 @@
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="B328">
         <v>2988</v>
       </c>
       <c r="C328" t="s">
+        <v>2587</v>
+      </c>
+      <c r="J328" t="s">
         <v>2588</v>
-      </c>
-      <c r="J328" t="s">
-        <v>2589</v>
       </c>
       <c r="K328" t="s">
         <v>15</v>
@@ -16856,22 +16859,22 @@
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="B329">
         <v>72</v>
       </c>
       <c r="C329" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="D329" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="F329">
         <v>40</v>
       </c>
       <c r="J329" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="K329" t="s">
         <v>31</v>
@@ -16905,19 +16908,19 @@
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="B331">
         <v>2596</v>
       </c>
       <c r="C331" t="s">
+        <v>2593</v>
+      </c>
+      <c r="I331" t="s">
+        <v>2592</v>
+      </c>
+      <c r="J331" t="s">
         <v>2594</v>
-      </c>
-      <c r="I331" t="s">
-        <v>2593</v>
-      </c>
-      <c r="J331" t="s">
-        <v>2595</v>
       </c>
       <c r="K331" t="s">
         <v>31</v>
@@ -16934,7 +16937,7 @@
         <v>2200</v>
       </c>
       <c r="C332" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="I332" t="s">
         <v>463</v>
@@ -16954,7 +16957,7 @@
         <v>2414</v>
       </c>
       <c r="C333" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="I333" t="s">
         <v>472</v>
@@ -16968,16 +16971,16 @@
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="B334">
         <v>2648</v>
       </c>
       <c r="C334" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="I334" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="K334" t="s">
         <v>31</v>
@@ -16988,16 +16991,16 @@
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="B335">
         <v>2167</v>
       </c>
       <c r="C335" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="I335" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="K335" t="s">
         <v>31</v>
@@ -17008,16 +17011,16 @@
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="B336">
         <v>2515</v>
       </c>
       <c r="C336" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="I336" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="K336" t="s">
         <v>31</v>
@@ -17028,16 +17031,16 @@
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="B337">
         <v>2910</v>
       </c>
       <c r="C337" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="I337" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="K337" t="s">
         <v>31</v>
@@ -17077,16 +17080,16 @@
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B339">
         <v>2712</v>
       </c>
       <c r="C339" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="I339" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="K339" t="s">
         <v>31</v>
@@ -17097,16 +17100,16 @@
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B340">
         <v>2771</v>
       </c>
       <c r="C340" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="I340" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="K340" t="s">
         <v>31</v>
@@ -17146,16 +17149,16 @@
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B342">
         <v>2989</v>
       </c>
       <c r="C342" t="s">
+        <v>2610</v>
+      </c>
+      <c r="J342" t="s">
         <v>2611</v>
-      </c>
-      <c r="J342" t="s">
-        <v>2612</v>
       </c>
       <c r="K342" t="s">
         <v>15</v>
@@ -17166,22 +17169,22 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="B343">
         <v>1212</v>
       </c>
       <c r="C343" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="D343" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="F343">
         <v>40</v>
       </c>
       <c r="J343" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="K343" t="s">
         <v>31</v>
@@ -17192,16 +17195,16 @@
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B344">
         <v>2990</v>
       </c>
       <c r="C344" t="s">
+        <v>2616</v>
+      </c>
+      <c r="J344" t="s">
         <v>2617</v>
-      </c>
-      <c r="J344" t="s">
-        <v>2618</v>
       </c>
       <c r="K344" t="s">
         <v>15</v>
@@ -17218,7 +17221,7 @@
         <v>168</v>
       </c>
       <c r="C345" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="D345" t="s">
         <v>2388</v>
@@ -17227,7 +17230,7 @@
         <v>40</v>
       </c>
       <c r="J345" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="K345" t="s">
         <v>31</v>
@@ -17267,16 +17270,16 @@
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="B347">
         <v>2991</v>
       </c>
       <c r="C347" t="s">
+        <v>2621</v>
+      </c>
+      <c r="J347" t="s">
         <v>2622</v>
-      </c>
-      <c r="J347" t="s">
-        <v>2623</v>
       </c>
       <c r="K347" t="s">
         <v>15</v>
@@ -17287,22 +17290,22 @@
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="B348">
         <v>1266</v>
       </c>
       <c r="C348" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="D348" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="F348">
         <v>40</v>
       </c>
       <c r="J348" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="K348" t="s">
         <v>31</v>
@@ -17875,16 +17878,16 @@
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B369">
         <v>2993</v>
       </c>
       <c r="C369" t="s">
+        <v>2627</v>
+      </c>
+      <c r="J369" t="s">
         <v>2628</v>
-      </c>
-      <c r="J369" t="s">
-        <v>2629</v>
       </c>
       <c r="K369" t="s">
         <v>15</v>
@@ -20302,16 +20305,16 @@
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="B474">
         <v>3006</v>
       </c>
       <c r="C474" t="s">
+        <v>2630</v>
+      </c>
+      <c r="J474" t="s">
         <v>2631</v>
-      </c>
-      <c r="J474" t="s">
-        <v>2632</v>
       </c>
       <c r="K474" t="s">
         <v>15</v>
@@ -20721,16 +20724,16 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B493">
         <v>494</v>
       </c>
       <c r="C493" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="D493" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="F493">
         <v>4</v>
@@ -20750,16 +20753,16 @@
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B494">
         <v>3009</v>
       </c>
       <c r="C494" t="s">
+        <v>2635</v>
+      </c>
+      <c r="J494" t="s">
         <v>2636</v>
-      </c>
-      <c r="J494" t="s">
-        <v>2637</v>
       </c>
       <c r="K494" t="s">
         <v>15</v>
@@ -20770,16 +20773,16 @@
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="B495">
         <v>75</v>
       </c>
       <c r="C495" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="D495" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="F495">
         <v>3</v>
@@ -20788,7 +20791,7 @@
         <v>419</v>
       </c>
       <c r="J495" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="K495" t="s">
         <v>31</v>
@@ -20799,16 +20802,16 @@
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B496">
         <v>592</v>
       </c>
       <c r="C496" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="D496" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="F496">
         <v>40</v>
@@ -20822,16 +20825,16 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="B497">
         <v>813</v>
       </c>
       <c r="C497" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="D497" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="F497">
         <v>40</v>
@@ -20845,16 +20848,16 @@
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="B498">
         <v>3010</v>
       </c>
       <c r="C498" t="s">
+        <v>2645</v>
+      </c>
+      <c r="J498" t="s">
         <v>2646</v>
-      </c>
-      <c r="J498" t="s">
-        <v>2647</v>
       </c>
       <c r="K498" t="s">
         <v>15</v>
@@ -20865,22 +20868,22 @@
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="B499">
         <v>51</v>
       </c>
       <c r="C499" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="D499" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="F499">
         <v>39</v>
       </c>
       <c r="J499" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="K499" t="s">
         <v>31</v>
@@ -20891,16 +20894,16 @@
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="B500">
         <v>3011</v>
       </c>
       <c r="C500" t="s">
+        <v>2651</v>
+      </c>
+      <c r="J500" t="s">
         <v>2652</v>
-      </c>
-      <c r="J500" t="s">
-        <v>2653</v>
       </c>
       <c r="K500" t="s">
         <v>15</v>
@@ -23843,16 +23846,16 @@
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B632">
         <v>3026</v>
       </c>
       <c r="C632" t="s">
+        <v>2654</v>
+      </c>
+      <c r="J632" t="s">
         <v>2655</v>
-      </c>
-      <c r="J632" t="s">
-        <v>2656</v>
       </c>
       <c r="K632" t="s">
         <v>15</v>
@@ -24472,16 +24475,16 @@
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="B657">
         <v>3031</v>
       </c>
       <c r="C657" t="s">
+        <v>2657</v>
+      </c>
+      <c r="J657" t="s">
         <v>2658</v>
-      </c>
-      <c r="J657" t="s">
-        <v>2659</v>
       </c>
       <c r="K657" t="s">
         <v>15</v>
@@ -24492,16 +24495,16 @@
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B658">
         <v>3032</v>
       </c>
       <c r="C658" t="s">
+        <v>2660</v>
+      </c>
+      <c r="J658" t="s">
         <v>2661</v>
-      </c>
-      <c r="J658" t="s">
-        <v>2662</v>
       </c>
       <c r="K658" t="s">
         <v>15</v>
@@ -24512,25 +24515,25 @@
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="B659">
         <v>118</v>
       </c>
       <c r="C659" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="D659" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="F659">
         <v>40</v>
       </c>
       <c r="G659" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="J659" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="K659" t="s">
         <v>31</v>
@@ -24541,25 +24544,25 @@
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B660">
         <v>819</v>
       </c>
       <c r="C660" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="D660" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="F660">
         <v>40</v>
       </c>
       <c r="G660" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="J660" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="K660" t="s">
         <v>31</v>
@@ -24570,22 +24573,22 @@
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="B661">
         <v>312</v>
       </c>
       <c r="C661" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D661" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="F661">
         <v>40</v>
       </c>
       <c r="J661" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="K661" t="s">
         <v>31</v>
@@ -24596,16 +24599,16 @@
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B662">
         <v>3033</v>
       </c>
       <c r="C662" t="s">
+        <v>2672</v>
+      </c>
+      <c r="J662" t="s">
         <v>2673</v>
-      </c>
-      <c r="J662" t="s">
-        <v>2674</v>
       </c>
       <c r="K662" t="s">
         <v>15</v>
@@ -24616,16 +24619,16 @@
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="B663">
         <v>3034</v>
       </c>
       <c r="C663" t="s">
+        <v>2675</v>
+      </c>
+      <c r="J663" t="s">
         <v>2676</v>
-      </c>
-      <c r="J663" t="s">
-        <v>2677</v>
       </c>
       <c r="K663" t="s">
         <v>15</v>
@@ -24636,16 +24639,16 @@
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B664">
         <v>3035</v>
       </c>
       <c r="C664" t="s">
+        <v>2678</v>
+      </c>
+      <c r="J664" t="s">
         <v>2679</v>
-      </c>
-      <c r="J664" t="s">
-        <v>2680</v>
       </c>
       <c r="K664" t="s">
         <v>15</v>
@@ -24656,22 +24659,22 @@
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="B665">
         <v>1268</v>
       </c>
       <c r="C665" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="D665" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="F665">
         <v>40</v>
       </c>
       <c r="J665" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="K665" t="s">
         <v>31</v>
@@ -24751,16 +24754,16 @@
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="B669">
         <v>3039</v>
       </c>
       <c r="C669" t="s">
+        <v>2684</v>
+      </c>
+      <c r="J669" t="s">
         <v>2685</v>
-      </c>
-      <c r="J669" t="s">
-        <v>2686</v>
       </c>
       <c r="K669" t="s">
         <v>15</v>
@@ -24835,16 +24838,16 @@
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="B672">
         <v>1180</v>
       </c>
       <c r="C672" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="D672" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="F672">
         <v>39</v>
@@ -24933,16 +24936,16 @@
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="B676">
         <v>3040</v>
       </c>
       <c r="C676" t="s">
+        <v>2689</v>
+      </c>
+      <c r="J676" t="s">
         <v>2690</v>
-      </c>
-      <c r="J676" t="s">
-        <v>2691</v>
       </c>
       <c r="K676" t="s">
         <v>15</v>
@@ -24999,16 +25002,16 @@
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="B679">
         <v>3041</v>
       </c>
       <c r="C679" t="s">
+        <v>2692</v>
+      </c>
+      <c r="J679" t="s">
         <v>2693</v>
-      </c>
-      <c r="J679" t="s">
-        <v>2694</v>
       </c>
       <c r="K679" t="s">
         <v>15</v>
@@ -25019,16 +25022,16 @@
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="B680">
         <v>3042</v>
       </c>
       <c r="C680" t="s">
+        <v>2695</v>
+      </c>
+      <c r="J680" t="s">
         <v>2696</v>
-      </c>
-      <c r="J680" t="s">
-        <v>2697</v>
       </c>
       <c r="K680" t="s">
         <v>15</v>
@@ -25062,16 +25065,16 @@
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B682">
         <v>3043</v>
       </c>
       <c r="C682" t="s">
+        <v>2698</v>
+      </c>
+      <c r="J682" t="s">
         <v>2699</v>
-      </c>
-      <c r="J682" t="s">
-        <v>2700</v>
       </c>
       <c r="K682" t="s">
         <v>15</v>
@@ -25105,16 +25108,16 @@
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="B684">
         <v>3044</v>
       </c>
       <c r="C684" t="s">
+        <v>2701</v>
+      </c>
+      <c r="J684" t="s">
         <v>2702</v>
-      </c>
-      <c r="J684" t="s">
-        <v>2703</v>
       </c>
       <c r="K684" t="s">
         <v>15</v>
@@ -25125,16 +25128,16 @@
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B685">
         <v>3047</v>
       </c>
       <c r="C685" t="s">
+        <v>2704</v>
+      </c>
+      <c r="J685" t="s">
         <v>2705</v>
-      </c>
-      <c r="J685" t="s">
-        <v>2706</v>
       </c>
       <c r="K685" t="s">
         <v>15</v>
@@ -25145,16 +25148,16 @@
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="B686">
         <v>321</v>
       </c>
       <c r="C686" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="D686" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="F686">
         <v>40</v>
@@ -25171,22 +25174,22 @@
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="B687">
         <v>1334</v>
       </c>
       <c r="C687" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="D687" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="F687">
         <v>40</v>
       </c>
       <c r="J687" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="K687" t="s">
         <v>31</v>
@@ -25358,16 +25361,16 @@
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="B695">
         <v>3048</v>
       </c>
       <c r="C695" t="s">
+        <v>2712</v>
+      </c>
+      <c r="J695" t="s">
         <v>2713</v>
-      </c>
-      <c r="J695" t="s">
-        <v>2714</v>
       </c>
       <c r="K695" t="s">
         <v>15</v>
@@ -25401,16 +25404,16 @@
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B697">
         <v>3049</v>
       </c>
       <c r="C697" t="s">
+        <v>2715</v>
+      </c>
+      <c r="J697" t="s">
         <v>2716</v>
-      </c>
-      <c r="J697" t="s">
-        <v>2717</v>
       </c>
       <c r="K697" t="s">
         <v>15</v>
@@ -25421,16 +25424,16 @@
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="B698">
         <v>3050</v>
       </c>
       <c r="C698" t="s">
+        <v>2718</v>
+      </c>
+      <c r="J698" t="s">
         <v>2719</v>
-      </c>
-      <c r="J698" t="s">
-        <v>2720</v>
       </c>
       <c r="K698" t="s">
         <v>15</v>
@@ -25441,16 +25444,16 @@
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B699">
         <v>3051</v>
       </c>
       <c r="C699" t="s">
+        <v>2721</v>
+      </c>
+      <c r="J699" t="s">
         <v>2722</v>
-      </c>
-      <c r="J699" t="s">
-        <v>2723</v>
       </c>
       <c r="K699" t="s">
         <v>15</v>
@@ -25507,16 +25510,16 @@
     </row>
     <row r="702" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="B702">
         <v>3052</v>
       </c>
       <c r="C702" t="s">
+        <v>2724</v>
+      </c>
+      <c r="J702" t="s">
         <v>2725</v>
-      </c>
-      <c r="J702" t="s">
-        <v>2726</v>
       </c>
       <c r="K702" t="s">
         <v>15</v>
@@ -25556,10 +25559,10 @@
         <v>3053</v>
       </c>
       <c r="C704" t="s">
+        <v>2726</v>
+      </c>
+      <c r="J704" t="s">
         <v>2727</v>
-      </c>
-      <c r="J704" t="s">
-        <v>2728</v>
       </c>
       <c r="K704" t="s">
         <v>15</v>
@@ -26714,16 +26717,16 @@
     </row>
     <row r="755" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B755">
         <v>3058</v>
       </c>
       <c r="C755" t="s">
+        <v>2729</v>
+      </c>
+      <c r="J755" t="s">
         <v>2730</v>
-      </c>
-      <c r="J755" t="s">
-        <v>2731</v>
       </c>
       <c r="K755" t="s">
         <v>15</v>
@@ -26734,22 +26737,22 @@
     </row>
     <row r="756" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="B756">
         <v>141</v>
       </c>
       <c r="C756" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="D756" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="F756">
         <v>38</v>
       </c>
       <c r="J756" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="K756" t="s">
         <v>31</v>
@@ -26760,16 +26763,16 @@
     </row>
     <row r="757" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="B757">
         <v>3059</v>
       </c>
       <c r="C757" t="s">
+        <v>2735</v>
+      </c>
+      <c r="J757" t="s">
         <v>2736</v>
-      </c>
-      <c r="J757" t="s">
-        <v>2737</v>
       </c>
       <c r="K757" t="s">
         <v>15</v>
@@ -26780,22 +26783,22 @@
     </row>
     <row r="758" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="B758">
         <v>191</v>
       </c>
       <c r="C758" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="D758" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="F758">
         <v>38</v>
       </c>
       <c r="J758" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="K758" t="s">
         <v>31</v>
@@ -26806,16 +26809,16 @@
     </row>
     <row r="759" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="B759">
         <v>3060</v>
       </c>
       <c r="C759" t="s">
+        <v>2741</v>
+      </c>
+      <c r="J759" t="s">
         <v>2742</v>
-      </c>
-      <c r="J759" t="s">
-        <v>2743</v>
       </c>
       <c r="K759" t="s">
         <v>15</v>
@@ -26826,19 +26829,19 @@
     </row>
     <row r="760" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="B760">
         <v>2290</v>
       </c>
       <c r="C760" t="s">
+        <v>2744</v>
+      </c>
+      <c r="I760" t="s">
+        <v>2743</v>
+      </c>
+      <c r="J760" t="s">
         <v>2745</v>
-      </c>
-      <c r="I760" t="s">
-        <v>2744</v>
-      </c>
-      <c r="J760" t="s">
-        <v>2746</v>
       </c>
       <c r="K760" t="s">
         <v>31</v>
@@ -26855,7 +26858,7 @@
         <v>3061</v>
       </c>
       <c r="C761" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="J761" t="s">
         <v>1350</v>
@@ -27273,16 +27276,16 @@
     </row>
     <row r="781" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="B781">
         <v>3068</v>
       </c>
       <c r="C781" t="s">
+        <v>2748</v>
+      </c>
+      <c r="J781" t="s">
         <v>2749</v>
-      </c>
-      <c r="J781" t="s">
-        <v>2750</v>
       </c>
       <c r="K781" t="s">
         <v>15</v>
@@ -27293,16 +27296,16 @@
     </row>
     <row r="782" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="B782">
         <v>1330</v>
       </c>
       <c r="C782" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="D782" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="F782">
         <v>40</v>
@@ -27486,16 +27489,16 @@
     </row>
     <row r="790" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="B790">
         <v>3071</v>
       </c>
       <c r="C790" t="s">
+        <v>2753</v>
+      </c>
+      <c r="J790" t="s">
         <v>2754</v>
-      </c>
-      <c r="J790" t="s">
-        <v>2755</v>
       </c>
       <c r="K790" t="s">
         <v>15</v>
@@ -27506,22 +27509,22 @@
     </row>
     <row r="791" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="B791">
         <v>1195</v>
       </c>
       <c r="C791" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="D791" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="F791">
         <v>40</v>
       </c>
       <c r="J791" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="K791" t="s">
         <v>31</v>
@@ -27538,7 +27541,7 @@
         <v>83</v>
       </c>
       <c r="C792" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="D792" t="s">
         <v>992</v>
@@ -27550,7 +27553,7 @@
         <v>992</v>
       </c>
       <c r="J792" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="K792" t="s">
         <v>31</v>
@@ -27561,22 +27564,22 @@
     </row>
     <row r="793" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="B793">
         <v>972</v>
       </c>
       <c r="C793" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="D793" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="F793">
         <v>40</v>
       </c>
       <c r="J793" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="K793" t="s">
         <v>31</v>
@@ -27587,16 +27590,16 @@
     </row>
     <row r="794" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="B794">
         <v>3072</v>
       </c>
       <c r="C794" t="s">
+        <v>2763</v>
+      </c>
+      <c r="J794" t="s">
         <v>2764</v>
-      </c>
-      <c r="J794" t="s">
-        <v>2765</v>
       </c>
       <c r="K794" t="s">
         <v>15</v>
@@ -27607,22 +27610,22 @@
     </row>
     <row r="795" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="B795">
         <v>939</v>
       </c>
       <c r="C795" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="D795" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="F795">
         <v>40</v>
       </c>
       <c r="J795" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="K795" t="s">
         <v>31</v>
@@ -28957,16 +28960,16 @@
     </row>
     <row r="855" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="B855">
         <v>3102</v>
       </c>
       <c r="C855" t="s">
+        <v>2769</v>
+      </c>
+      <c r="J855" t="s">
         <v>2770</v>
-      </c>
-      <c r="J855" t="s">
-        <v>2771</v>
       </c>
       <c r="K855" t="s">
         <v>15</v>
@@ -28977,16 +28980,16 @@
     </row>
     <row r="856" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="B856">
         <v>3103</v>
       </c>
       <c r="C856" t="s">
+        <v>2772</v>
+      </c>
+      <c r="J856" t="s">
         <v>2773</v>
-      </c>
-      <c r="J856" t="s">
-        <v>2774</v>
       </c>
       <c r="K856" t="s">
         <v>15</v>
@@ -29245,16 +29248,16 @@
     </row>
     <row r="867" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="B867">
         <v>3106</v>
       </c>
       <c r="C867" t="s">
+        <v>2775</v>
+      </c>
+      <c r="J867" t="s">
         <v>2776</v>
-      </c>
-      <c r="J867" t="s">
-        <v>2777</v>
       </c>
       <c r="K867" t="s">
         <v>15</v>
@@ -29265,22 +29268,22 @@
     </row>
     <row r="868" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="B868">
         <v>1214</v>
       </c>
       <c r="C868" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="D868" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="F868">
         <v>40</v>
       </c>
       <c r="J868" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="K868" t="s">
         <v>31</v>
@@ -29291,22 +29294,22 @@
     </row>
     <row r="869" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="B869">
         <v>1296</v>
       </c>
       <c r="C869" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="D869" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="F869">
         <v>40</v>
       </c>
       <c r="J869" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="K869" t="s">
         <v>31</v>
@@ -30218,16 +30221,16 @@
     </row>
     <row r="911" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="B911">
         <v>3136</v>
       </c>
       <c r="C911" t="s">
+        <v>2784</v>
+      </c>
+      <c r="J911" t="s">
         <v>2785</v>
-      </c>
-      <c r="J911" t="s">
-        <v>2786</v>
       </c>
       <c r="K911" t="s">
         <v>31</v>
@@ -30330,13 +30333,13 @@
     </row>
     <row r="916" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="B916">
         <v>3139</v>
       </c>
       <c r="C916" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="K916" t="s">
         <v>31</v>
@@ -30373,13 +30376,13 @@
     </row>
     <row r="918" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="B918">
         <v>3140</v>
       </c>
       <c r="C918" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="K918" t="s">
         <v>31</v>
@@ -30784,16 +30787,16 @@
     </row>
     <row r="936" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="B936">
         <v>3151</v>
       </c>
       <c r="C936" t="s">
+        <v>2791</v>
+      </c>
+      <c r="J936" t="s">
         <v>2792</v>
-      </c>
-      <c r="J936" t="s">
-        <v>2793</v>
       </c>
       <c r="K936" t="s">
         <v>31</v>
@@ -33031,16 +33034,16 @@
     </row>
     <row r="1032" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="B1032">
         <v>3206</v>
       </c>
       <c r="C1032" t="s">
+        <v>2794</v>
+      </c>
+      <c r="J1032" t="s">
         <v>2795</v>
-      </c>
-      <c r="J1032" t="s">
-        <v>2796</v>
       </c>
       <c r="K1032" t="s">
         <v>31</v>
@@ -33051,16 +33054,16 @@
     </row>
     <row r="1033" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B1033">
         <v>3207</v>
       </c>
       <c r="C1033" t="s">
+        <v>2797</v>
+      </c>
+      <c r="J1033" t="s">
         <v>2798</v>
-      </c>
-      <c r="J1033" t="s">
-        <v>2799</v>
       </c>
       <c r="K1033" t="s">
         <v>31</v>
@@ -33071,13 +33074,13 @@
     </row>
     <row r="1034" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B1034">
         <v>3208</v>
       </c>
       <c r="C1034" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="K1034" t="s">
         <v>31</v>
@@ -33088,16 +33091,16 @@
     </row>
     <row r="1035" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B1035">
         <v>3209</v>
       </c>
       <c r="C1035" t="s">
+        <v>2802</v>
+      </c>
+      <c r="J1035" t="s">
         <v>2803</v>
-      </c>
-      <c r="J1035" t="s">
-        <v>2804</v>
       </c>
       <c r="K1035" t="s">
         <v>31</v>
@@ -33108,16 +33111,16 @@
     </row>
     <row r="1036" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B1036">
         <v>3210</v>
       </c>
       <c r="C1036" t="s">
+        <v>2805</v>
+      </c>
+      <c r="J1036" t="s">
         <v>2806</v>
-      </c>
-      <c r="J1036" t="s">
-        <v>2807</v>
       </c>
       <c r="K1036" t="s">
         <v>31</v>
@@ -33128,13 +33131,13 @@
     </row>
     <row r="1037" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B1037">
         <v>3211</v>
       </c>
       <c r="C1037" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="J1037" t="s">
         <v>2323</v>
@@ -33573,16 +33576,16 @@
     </row>
     <row r="1057" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B1057">
         <v>3223</v>
       </c>
       <c r="C1057" t="s">
+        <v>2810</v>
+      </c>
+      <c r="J1057" t="s">
         <v>2811</v>
-      </c>
-      <c r="J1057" t="s">
-        <v>2812</v>
       </c>
       <c r="K1057" t="s">
         <v>15</v>
@@ -33593,16 +33596,16 @@
     </row>
     <row r="1058" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B1058">
         <v>3224</v>
       </c>
       <c r="C1058" t="s">
+        <v>2813</v>
+      </c>
+      <c r="J1058" t="s">
         <v>2814</v>
-      </c>
-      <c r="J1058" t="s">
-        <v>2815</v>
       </c>
       <c r="K1058" t="s">
         <v>15</v>
@@ -33613,16 +33616,16 @@
     </row>
     <row r="1059" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B1059">
         <v>3225</v>
       </c>
       <c r="C1059" t="s">
+        <v>2816</v>
+      </c>
+      <c r="J1059" t="s">
         <v>2817</v>
-      </c>
-      <c r="J1059" t="s">
-        <v>2818</v>
       </c>
       <c r="K1059" t="s">
         <v>15</v>
@@ -33633,22 +33636,22 @@
     </row>
     <row r="1060" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B1060">
         <v>434</v>
       </c>
       <c r="C1060" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="D1060" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="F1060">
         <v>40</v>
       </c>
       <c r="J1060" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="K1060" t="s">
         <v>31</v>

--- a/conceptlist.xlsx
+++ b/conceptlist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="2823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5105" uniqueCount="2822">
   <si>
     <t>Label</t>
   </si>
@@ -8262,9 +8262,6 @@
   </si>
   <si>
     <t>bollard.n.01</t>
-  </si>
-  <si>
-    <t>https://www.w3.org/2006/03/wn/wn20/instances/synset-beam-noun-02</t>
   </si>
   <si>
     <t>night-light</t>
@@ -8810,10 +8807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1087"/>
+  <dimension ref="A1:L1086"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="K145" sqref="K145"/>
+    <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
+      <selection activeCell="D768" sqref="D768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12158,7 +12155,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B143">
         <v>58</v>
@@ -12187,7 +12184,7 @@
         <v>2963</v>
       </c>
       <c r="C144" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="D144" t="s">
         <v>2400</v>
@@ -26855,10 +26852,13 @@
         <v>1351</v>
       </c>
       <c r="B761">
-        <v>3061</v>
+        <v>2873</v>
       </c>
       <c r="C761" t="s">
-        <v>2746</v>
+        <v>1352</v>
+      </c>
+      <c r="I761" t="s">
+        <v>1351</v>
       </c>
       <c r="J761" t="s">
         <v>1350</v>
@@ -26955,16 +26955,16 @@
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>1351</v>
+        <v>1362</v>
       </c>
       <c r="B766">
-        <v>2873</v>
+        <v>2804</v>
       </c>
       <c r="C766" t="s">
-        <v>1352</v>
+        <v>1363</v>
       </c>
       <c r="I766" t="s">
-        <v>1351</v>
+        <v>1362</v>
       </c>
       <c r="K766" t="s">
         <v>31</v>
@@ -26975,36 +26975,36 @@
     </row>
     <row r="767" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="B767">
-        <v>2804</v>
+        <v>2776</v>
       </c>
       <c r="C767" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="I767" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="K767" t="s">
         <v>31</v>
       </c>
       <c r="L767">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="768" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="B768">
-        <v>2776</v>
+        <v>2865</v>
       </c>
       <c r="C768" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="I768" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="K768" t="s">
         <v>31</v>
@@ -27015,16 +27015,16 @@
     </row>
     <row r="769" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="B769">
-        <v>2865</v>
+        <v>2869</v>
       </c>
       <c r="C769" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="I769" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="K769" t="s">
         <v>31</v>
@@ -27035,171 +27035,171 @@
     </row>
     <row r="770" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>1368</v>
+        <v>654</v>
       </c>
       <c r="B770">
-        <v>2869</v>
+        <v>3062</v>
       </c>
       <c r="C770" t="s">
-        <v>1369</v>
-      </c>
-      <c r="I770" t="s">
-        <v>1368</v>
+        <v>1370</v>
+      </c>
+      <c r="J770" t="s">
+        <v>1371</v>
       </c>
       <c r="K770" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L770">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="771" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>654</v>
+        <v>1372</v>
       </c>
       <c r="B771">
-        <v>3062</v>
+        <v>1199</v>
       </c>
       <c r="C771" t="s">
-        <v>1370</v>
+        <v>1373</v>
+      </c>
+      <c r="D771" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F771">
+        <v>40</v>
       </c>
       <c r="J771" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="K771" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L771">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="772" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>1372</v>
+        <v>483</v>
       </c>
       <c r="B772">
-        <v>1199</v>
+        <v>3063</v>
       </c>
       <c r="C772" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D772" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F772">
-        <v>40</v>
+        <v>1375</v>
       </c>
       <c r="J772" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="K772" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L772">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="773" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>483</v>
+        <v>1377</v>
       </c>
       <c r="B773">
-        <v>3063</v>
+        <v>1240</v>
       </c>
       <c r="C773" t="s">
-        <v>1375</v>
+        <v>1378</v>
+      </c>
+      <c r="D773" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F773">
+        <v>40</v>
       </c>
       <c r="J773" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="K773" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L773">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="774" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="B774">
-        <v>1240</v>
+        <v>3064</v>
       </c>
       <c r="C774" t="s">
-        <v>1378</v>
-      </c>
-      <c r="D774" t="s">
-        <v>1377</v>
-      </c>
-      <c r="F774">
-        <v>40</v>
+        <v>1381</v>
       </c>
       <c r="J774" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="K774" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L774">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="775" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="B775">
-        <v>3064</v>
+        <v>2311</v>
       </c>
       <c r="C775" t="s">
-        <v>1381</v>
+        <v>1384</v>
+      </c>
+      <c r="I775" t="s">
+        <v>1383</v>
       </c>
       <c r="J775" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="K775" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L775">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="776" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="B776">
-        <v>2311</v>
+        <v>3065</v>
       </c>
       <c r="C776" t="s">
-        <v>1384</v>
-      </c>
-      <c r="I776" t="s">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="J776" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="K776" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L776">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="777" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="B777">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="C777" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="J777" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="K777" t="s">
         <v>15</v>
@@ -27210,16 +27210,16 @@
     </row>
     <row r="778" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="B778">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="C778" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="J778" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="K778" t="s">
         <v>15</v>
@@ -27230,114 +27230,114 @@
     </row>
     <row r="779" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="B779">
-        <v>3067</v>
+        <v>105</v>
       </c>
       <c r="C779" t="s">
-        <v>1396</v>
+        <v>1399</v>
+      </c>
+      <c r="D779" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F779">
+        <v>38</v>
       </c>
       <c r="J779" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="K779" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L779">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="780" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>1398</v>
+        <v>2746</v>
       </c>
       <c r="B780">
-        <v>105</v>
+        <v>3068</v>
       </c>
       <c r="C780" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D780" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F780">
-        <v>38</v>
+        <v>2747</v>
       </c>
       <c r="J780" t="s">
-        <v>1400</v>
+        <v>2748</v>
       </c>
       <c r="K780" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L780">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="781" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>2747</v>
+        <v>2749</v>
       </c>
       <c r="B781">
-        <v>3068</v>
+        <v>1330</v>
       </c>
       <c r="C781" t="s">
-        <v>2748</v>
-      </c>
-      <c r="J781" t="s">
+        <v>2750</v>
+      </c>
+      <c r="D781" t="s">
         <v>2749</v>
       </c>
+      <c r="F781">
+        <v>40</v>
+      </c>
       <c r="K781" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L781">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="782" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>2750</v>
+        <v>1401</v>
       </c>
       <c r="B782">
-        <v>1330</v>
+        <v>1168</v>
       </c>
       <c r="C782" t="s">
-        <v>2751</v>
+        <v>1402</v>
       </c>
       <c r="D782" t="s">
-        <v>2750</v>
+        <v>1401</v>
       </c>
       <c r="F782">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="J782" t="s">
+        <v>1400</v>
       </c>
       <c r="K782" t="s">
         <v>31</v>
       </c>
       <c r="L782">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="783" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>1401</v>
+        <v>455</v>
       </c>
       <c r="B783">
-        <v>1168</v>
+        <v>3069</v>
       </c>
       <c r="C783" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D783" t="s">
-        <v>1401</v>
-      </c>
-      <c r="F783">
-        <v>38</v>
+        <v>1403</v>
       </c>
       <c r="J783" t="s">
-        <v>1400</v>
+        <v>1404</v>
       </c>
       <c r="K783" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L783">
         <v>8</v>
@@ -27345,143 +27345,143 @@
     </row>
     <row r="784" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>455</v>
+        <v>1405</v>
       </c>
       <c r="B784">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="C784" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="J784" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="K784" t="s">
         <v>15</v>
       </c>
       <c r="L784">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="785" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="B785">
-        <v>3070</v>
+        <v>247</v>
       </c>
       <c r="C785" t="s">
-        <v>1406</v>
+        <v>1409</v>
+      </c>
+      <c r="D785" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F785">
+        <v>40</v>
       </c>
       <c r="J785" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="K785" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L785">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="786" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="B786">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C786" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="D786" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="F786">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J786" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="K786" t="s">
         <v>31</v>
       </c>
       <c r="L786">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="787" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="B787">
-        <v>232</v>
+        <v>1333</v>
       </c>
       <c r="C787" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="D787" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="F787">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J787" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="K787" t="s">
         <v>31</v>
       </c>
       <c r="L787">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="788" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="B788">
-        <v>1333</v>
+        <v>182</v>
       </c>
       <c r="C788" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="D788" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="F788">
         <v>40</v>
       </c>
       <c r="J788" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="K788" t="s">
         <v>31</v>
       </c>
       <c r="L788">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="789" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>1417</v>
+        <v>2751</v>
       </c>
       <c r="B789">
-        <v>182</v>
+        <v>3071</v>
       </c>
       <c r="C789" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D789" t="s">
-        <v>1417</v>
-      </c>
-      <c r="F789">
-        <v>40</v>
+        <v>2752</v>
       </c>
       <c r="J789" t="s">
-        <v>1413</v>
+        <v>2753</v>
       </c>
       <c r="K789" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L789">
         <v>9</v>
@@ -27489,42 +27489,51 @@
     </row>
     <row r="790" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>2752</v>
+        <v>2754</v>
       </c>
       <c r="B790">
-        <v>3071</v>
+        <v>1195</v>
       </c>
       <c r="C790" t="s">
-        <v>2753</v>
+        <v>2755</v>
+      </c>
+      <c r="D790" t="s">
+        <v>2754</v>
+      </c>
+      <c r="F790">
+        <v>40</v>
       </c>
       <c r="J790" t="s">
-        <v>2754</v>
+        <v>2756</v>
       </c>
       <c r="K790" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L790">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="791" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>2755</v>
+        <v>992</v>
       </c>
       <c r="B791">
-        <v>1195</v>
+        <v>83</v>
       </c>
       <c r="C791" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="D791" t="s">
-        <v>2755</v>
+        <v>992</v>
       </c>
       <c r="F791">
         <v>40</v>
       </c>
+      <c r="G791" t="s">
+        <v>992</v>
+      </c>
       <c r="J791" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="K791" t="s">
         <v>31</v>
@@ -27535,25 +27544,22 @@
     </row>
     <row r="792" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>992</v>
+        <v>2759</v>
       </c>
       <c r="B792">
-        <v>83</v>
+        <v>972</v>
       </c>
       <c r="C792" t="s">
-        <v>2758</v>
+        <v>2760</v>
       </c>
       <c r="D792" t="s">
-        <v>992</v>
+        <v>2759</v>
       </c>
       <c r="F792">
         <v>40</v>
       </c>
-      <c r="G792" t="s">
-        <v>992</v>
-      </c>
       <c r="J792" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="K792" t="s">
         <v>31</v>
@@ -27564,111 +27570,105 @@
     </row>
     <row r="793" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="B793">
-        <v>972</v>
+        <v>3072</v>
       </c>
       <c r="C793" t="s">
-        <v>2761</v>
-      </c>
-      <c r="D793" t="s">
-        <v>2760</v>
-      </c>
-      <c r="F793">
-        <v>40</v>
+        <v>2762</v>
       </c>
       <c r="J793" t="s">
-        <v>2759</v>
+        <v>2763</v>
       </c>
       <c r="K793" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L793">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="794" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>2762</v>
+        <v>2764</v>
       </c>
       <c r="B794">
-        <v>3072</v>
+        <v>939</v>
       </c>
       <c r="C794" t="s">
-        <v>2763</v>
+        <v>2765</v>
+      </c>
+      <c r="D794" t="s">
+        <v>2764</v>
+      </c>
+      <c r="F794">
+        <v>40</v>
       </c>
       <c r="J794" t="s">
-        <v>2764</v>
+        <v>2766</v>
       </c>
       <c r="K794" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L794">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="795" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>2765</v>
+        <v>1419</v>
       </c>
       <c r="B795">
-        <v>939</v>
+        <v>2691</v>
       </c>
       <c r="C795" t="s">
-        <v>2766</v>
-      </c>
-      <c r="D795" t="s">
-        <v>2765</v>
-      </c>
-      <c r="F795">
-        <v>40</v>
+        <v>1420</v>
+      </c>
+      <c r="I795" t="s">
+        <v>1419</v>
       </c>
       <c r="J795" t="s">
-        <v>2767</v>
+        <v>1421</v>
       </c>
       <c r="K795" t="s">
         <v>31</v>
       </c>
       <c r="L795">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="796" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>1419</v>
+        <v>1424</v>
       </c>
       <c r="B796">
-        <v>2691</v>
+        <v>2427</v>
       </c>
       <c r="C796" t="s">
-        <v>1420</v>
+        <v>1425</v>
       </c>
       <c r="I796" t="s">
-        <v>1419</v>
-      </c>
-      <c r="J796" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="K796" t="s">
         <v>31</v>
       </c>
       <c r="L796">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="797" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="B797">
-        <v>2427</v>
+        <v>2616</v>
       </c>
       <c r="C797" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="I797" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="K797" t="s">
         <v>31</v>
@@ -27679,16 +27679,16 @@
     </row>
     <row r="798" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="B798">
-        <v>2616</v>
+        <v>2797</v>
       </c>
       <c r="C798" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="I798" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="K798" t="s">
         <v>31</v>
@@ -27699,65 +27699,65 @@
     </row>
     <row r="799" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>1422</v>
+        <v>1428</v>
       </c>
       <c r="B799">
-        <v>2797</v>
+        <v>3073</v>
       </c>
       <c r="C799" t="s">
-        <v>1423</v>
-      </c>
-      <c r="I799" t="s">
-        <v>1422</v>
+        <v>1429</v>
+      </c>
+      <c r="J799" t="s">
+        <v>1430</v>
       </c>
       <c r="K799" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L799">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="800" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="B800">
-        <v>3073</v>
+        <v>1321</v>
       </c>
       <c r="C800" t="s">
-        <v>1429</v>
+        <v>1432</v>
+      </c>
+      <c r="D800" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F800">
+        <v>40</v>
       </c>
       <c r="J800" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="K800" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L800">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="801" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="B801">
-        <v>1321</v>
+        <v>3074</v>
       </c>
       <c r="C801" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D801" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F801">
-        <v>40</v>
+        <v>1435</v>
       </c>
       <c r="J801" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="K801" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L801">
         <v>9</v>
@@ -27765,257 +27765,260 @@
     </row>
     <row r="802" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="B802">
-        <v>3074</v>
+        <v>1259</v>
       </c>
       <c r="C802" t="s">
-        <v>1435</v>
+        <v>1438</v>
+      </c>
+      <c r="D802" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F802">
+        <v>40</v>
       </c>
       <c r="J802" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="K802" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L802">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="803" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="B803">
-        <v>1259</v>
+        <v>3075</v>
       </c>
       <c r="C803" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D803" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F803">
-        <v>40</v>
+        <v>1441</v>
       </c>
       <c r="J803" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="K803" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L803">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="804" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="B804">
-        <v>3075</v>
+        <v>1274</v>
       </c>
       <c r="C804" t="s">
-        <v>1441</v>
+        <v>1444</v>
+      </c>
+      <c r="D804" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F804">
+        <v>40</v>
       </c>
       <c r="J804" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="K804" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L804">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="805" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="B805">
-        <v>1274</v>
+        <v>3076</v>
       </c>
       <c r="C805" t="s">
-        <v>1444</v>
-      </c>
-      <c r="D805" t="s">
-        <v>1443</v>
-      </c>
-      <c r="F805">
-        <v>40</v>
+        <v>1447</v>
       </c>
       <c r="J805" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="K805" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L805">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="806" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="B806">
-        <v>3076</v>
+        <v>2273</v>
       </c>
       <c r="C806" t="s">
-        <v>1447</v>
+        <v>1450</v>
+      </c>
+      <c r="I806" t="s">
+        <v>1449</v>
       </c>
       <c r="J806" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="K806" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L806">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="807" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="B807">
-        <v>2273</v>
+        <v>3077</v>
       </c>
       <c r="C807" t="s">
-        <v>1450</v>
-      </c>
-      <c r="I807" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="J807" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="K807" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L807">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="808" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="B808">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="C808" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="J808" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="K808" t="s">
         <v>15</v>
       </c>
       <c r="L808">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="809" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="B809">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="C809" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="J809" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="K809" t="s">
         <v>15</v>
       </c>
       <c r="L809">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="810" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="B810">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="C810" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="J810" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="K810" t="s">
         <v>15</v>
       </c>
       <c r="L810">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="B811">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="C811" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="J811" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="K811" t="s">
         <v>15</v>
       </c>
       <c r="L811">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="812" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="B812">
-        <v>3081</v>
+        <v>229</v>
       </c>
       <c r="C812" t="s">
-        <v>1465</v>
+        <v>1468</v>
+      </c>
+      <c r="D812" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F812">
+        <v>40</v>
       </c>
       <c r="J812" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="K812" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L812">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="813" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="B813">
-        <v>229</v>
+        <v>2049</v>
       </c>
       <c r="C813" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D813" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F813">
-        <v>40</v>
+        <v>1471</v>
+      </c>
+      <c r="I813" t="s">
+        <v>1470</v>
       </c>
       <c r="J813" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="K813" t="s">
         <v>31</v>
@@ -28026,19 +28029,19 @@
     </row>
     <row r="814" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="B814">
-        <v>2049</v>
+        <v>2359</v>
       </c>
       <c r="C814" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="I814" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="J814" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="K814" t="s">
         <v>31</v>
@@ -28049,22 +28052,19 @@
     </row>
     <row r="815" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="B815">
-        <v>2359</v>
+        <v>3082</v>
       </c>
       <c r="C815" t="s">
-        <v>1474</v>
-      </c>
-      <c r="I815" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
       <c r="J815" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="K815" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L815">
         <v>9</v>
@@ -28072,36 +28072,48 @@
     </row>
     <row r="816" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="B816">
-        <v>3082</v>
+        <v>103</v>
       </c>
       <c r="C816" t="s">
-        <v>1477</v>
+        <v>1480</v>
+      </c>
+      <c r="D816" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F816">
+        <v>40</v>
+      </c>
+      <c r="G816" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H816" t="s">
+        <v>1479</v>
       </c>
       <c r="J816" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="K816" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L816">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="817" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="B817">
-        <v>103</v>
+        <v>572</v>
       </c>
       <c r="C817" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="D817" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="F817">
         <v>40</v>
@@ -28109,31 +28121,28 @@
       <c r="G817" t="s">
         <v>1479</v>
       </c>
-      <c r="H817" t="s">
-        <v>1479</v>
-      </c>
       <c r="J817" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="K817" t="s">
         <v>31</v>
       </c>
       <c r="L817">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="818" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="B818">
-        <v>572</v>
+        <v>518</v>
       </c>
       <c r="C818" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="D818" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="F818">
         <v>40</v>
@@ -28153,25 +28162,19 @@
     </row>
     <row r="819" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="B819">
-        <v>518</v>
+        <v>2830</v>
       </c>
       <c r="C819" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D819" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F819">
-        <v>40</v>
-      </c>
-      <c r="G819" t="s">
-        <v>1479</v>
+        <v>1488</v>
+      </c>
+      <c r="I819" t="s">
+        <v>1487</v>
       </c>
       <c r="J819" t="s">
-        <v>1484</v>
+        <v>1489</v>
       </c>
       <c r="K819" t="s">
         <v>31</v>
@@ -28182,65 +28185,65 @@
     </row>
     <row r="820" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="B820">
-        <v>2830</v>
+        <v>3083</v>
       </c>
       <c r="C820" t="s">
-        <v>1488</v>
-      </c>
-      <c r="I820" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="J820" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="K820" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L820">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="821" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="B821">
-        <v>3083</v>
+        <v>264</v>
       </c>
       <c r="C821" t="s">
-        <v>1491</v>
+        <v>1494</v>
+      </c>
+      <c r="D821" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F821">
+        <v>40</v>
       </c>
       <c r="J821" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="K821" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L821">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="822" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="B822">
-        <v>264</v>
+        <v>2018</v>
       </c>
       <c r="C822" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D822" t="s">
-        <v>1493</v>
-      </c>
-      <c r="F822">
-        <v>40</v>
+        <v>1497</v>
+      </c>
+      <c r="H822" t="s">
+        <v>1496</v>
       </c>
       <c r="J822" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="K822" t="s">
         <v>31</v>
@@ -28251,22 +28254,19 @@
     </row>
     <row r="823" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="B823">
-        <v>2018</v>
+        <v>3084</v>
       </c>
       <c r="C823" t="s">
-        <v>1497</v>
-      </c>
-      <c r="H823" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="J823" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="K823" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L823">
         <v>9</v>
@@ -28274,329 +28274,329 @@
     </row>
     <row r="824" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="B824">
-        <v>3084</v>
+        <v>2529</v>
       </c>
       <c r="C824" t="s">
-        <v>1500</v>
+        <v>1503</v>
+      </c>
+      <c r="I824" t="s">
+        <v>1502</v>
       </c>
       <c r="J824" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="K824" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L824">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="825" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="B825">
-        <v>2529</v>
+        <v>3085</v>
       </c>
       <c r="C825" t="s">
-        <v>1503</v>
-      </c>
-      <c r="I825" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="J825" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="K825" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L825">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="826" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="B826">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="C826" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="J826" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="K826" t="s">
         <v>15</v>
       </c>
       <c r="L826">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="827" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="B827">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="C827" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="J827" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="K827" t="s">
         <v>15</v>
       </c>
       <c r="L827">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="828" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="B828">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="C828" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="J828" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="K828" t="s">
         <v>15</v>
       </c>
       <c r="L828">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="829" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B829">
+        <v>750</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D829" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F829">
+        <v>40</v>
+      </c>
+      <c r="G829" t="s">
         <v>1514</v>
       </c>
-      <c r="B829">
-        <v>3088</v>
-      </c>
-      <c r="C829" t="s">
-        <v>1515</v>
-      </c>
       <c r="J829" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="K829" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L829">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="830" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="B830">
-        <v>750</v>
+        <v>3089</v>
       </c>
       <c r="C830" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D830" t="s">
-        <v>1517</v>
-      </c>
-      <c r="F830">
-        <v>40</v>
-      </c>
-      <c r="G830" t="s">
-        <v>1514</v>
+        <v>1521</v>
       </c>
       <c r="J830" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="K830" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L830">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="831" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="B831">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="C831" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="J831" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="K831" t="s">
         <v>15</v>
       </c>
       <c r="L831">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="832" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="B832">
-        <v>3090</v>
+        <v>1344</v>
       </c>
       <c r="C832" t="s">
-        <v>1524</v>
+        <v>1527</v>
+      </c>
+      <c r="D832" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F832">
+        <v>40</v>
       </c>
       <c r="J832" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="K832" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L832">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="833" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>1526</v>
+        <v>1485</v>
       </c>
       <c r="B833">
-        <v>1344</v>
+        <v>3091</v>
       </c>
       <c r="C833" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D833" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F833">
-        <v>40</v>
+        <v>1529</v>
       </c>
       <c r="J833" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="K833" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L833">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="834" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>1485</v>
+        <v>1531</v>
       </c>
       <c r="B834">
-        <v>3091</v>
+        <v>1185</v>
       </c>
       <c r="C834" t="s">
-        <v>1529</v>
+        <v>1532</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F834">
+        <v>40</v>
       </c>
       <c r="J834" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="K834" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L834">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="835" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="B835">
-        <v>1185</v>
+        <v>3092</v>
       </c>
       <c r="C835" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D835" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F835">
-        <v>40</v>
+        <v>1535</v>
       </c>
       <c r="J835" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="K835" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L835">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="836" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="B836">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="C836" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="J836" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="K836" t="s">
         <v>15</v>
       </c>
       <c r="L836">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="837" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="B837">
-        <v>3093</v>
+        <v>1350</v>
       </c>
       <c r="C837" t="s">
-        <v>1538</v>
+        <v>1541</v>
+      </c>
+      <c r="D837" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F837">
+        <v>40</v>
       </c>
       <c r="J837" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="K837" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L837">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="838" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>1540</v>
+        <v>1047</v>
       </c>
       <c r="B838">
-        <v>1350</v>
+        <v>3094</v>
       </c>
       <c r="C838" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D838" t="s">
-        <v>1540</v>
-      </c>
-      <c r="F838">
-        <v>40</v>
+        <v>1543</v>
       </c>
       <c r="J838" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
       <c r="K838" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L838">
         <v>9</v>
@@ -28604,145 +28604,148 @@
     </row>
     <row r="839" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>1047</v>
+        <v>1545</v>
       </c>
       <c r="B839">
-        <v>3094</v>
+        <v>1284</v>
       </c>
       <c r="C839" t="s">
-        <v>1543</v>
-      </c>
-      <c r="J839" t="s">
-        <v>1544</v>
+        <v>1546</v>
+      </c>
+      <c r="D839" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F839">
+        <v>40</v>
       </c>
       <c r="K839" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L839">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="840" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="B840">
-        <v>1284</v>
+        <v>3095</v>
       </c>
       <c r="C840" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D840" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F840">
-        <v>40</v>
+        <v>1548</v>
+      </c>
+      <c r="J840" t="s">
+        <v>1549</v>
       </c>
       <c r="K840" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L840">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="841" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="B841">
-        <v>3095</v>
+        <v>1295</v>
       </c>
       <c r="C841" t="s">
-        <v>1548</v>
+        <v>1551</v>
+      </c>
+      <c r="D841" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F841">
+        <v>38</v>
       </c>
       <c r="J841" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="K841" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L841">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="842" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="B842">
-        <v>1295</v>
+        <v>3096</v>
       </c>
       <c r="C842" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D842" t="s">
-        <v>1550</v>
-      </c>
-      <c r="F842">
-        <v>38</v>
+        <v>1554</v>
       </c>
       <c r="J842" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="K842" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L842">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="843" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="B843">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="C843" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="J843" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="K843" t="s">
         <v>15</v>
       </c>
       <c r="L843">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="844" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="B844">
-        <v>3097</v>
+        <v>1306</v>
       </c>
       <c r="C844" t="s">
-        <v>1557</v>
-      </c>
-      <c r="J844" t="s">
-        <v>1558</v>
+        <v>1560</v>
+      </c>
+      <c r="D844" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F844">
+        <v>40</v>
       </c>
       <c r="K844" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L844">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="845" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="B845">
-        <v>1306</v>
+        <v>1327</v>
       </c>
       <c r="C845" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
       <c r="D845" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="F845">
         <v>40</v>
@@ -28756,203 +28759,200 @@
     </row>
     <row r="846" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="B846">
-        <v>1327</v>
+        <v>3098</v>
       </c>
       <c r="C846" t="s">
-        <v>1562</v>
-      </c>
-      <c r="D846" t="s">
-        <v>1561</v>
-      </c>
-      <c r="F846">
-        <v>40</v>
+        <v>1564</v>
+      </c>
+      <c r="J846" t="s">
+        <v>1565</v>
       </c>
       <c r="K846" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L846">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="847" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="B847">
-        <v>3098</v>
+        <v>436</v>
       </c>
       <c r="C847" t="s">
-        <v>1564</v>
+        <v>1567</v>
+      </c>
+      <c r="D847" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F847">
+        <v>40</v>
       </c>
       <c r="J847" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="K847" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L847">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="848" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="B848">
-        <v>436</v>
+        <v>3099</v>
       </c>
       <c r="C848" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D848" t="s">
-        <v>1566</v>
-      </c>
-      <c r="F848">
-        <v>40</v>
+        <v>1570</v>
       </c>
       <c r="J848" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="K848" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L848">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="849" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="B849">
-        <v>3099</v>
+        <v>2022</v>
       </c>
       <c r="C849" t="s">
-        <v>1570</v>
+        <v>1573</v>
+      </c>
+      <c r="H849" t="s">
+        <v>1572</v>
       </c>
       <c r="J849" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="K849" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L849">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="850" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="B850">
-        <v>2022</v>
+        <v>3100</v>
       </c>
       <c r="C850" t="s">
-        <v>1573</v>
-      </c>
-      <c r="H850" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="J850" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="K850" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L850">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="851" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="B851">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="C851" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="J851" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="K851" t="s">
         <v>15</v>
       </c>
       <c r="L851">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="852" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="B852">
-        <v>3101</v>
+        <v>145</v>
       </c>
       <c r="C852" t="s">
-        <v>1579</v>
+        <v>1582</v>
+      </c>
+      <c r="D852" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F852">
+        <v>38</v>
       </c>
       <c r="J852" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="K852" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L852">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="853" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="B853">
-        <v>145</v>
+        <v>1216</v>
       </c>
       <c r="C853" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="D853" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="F853">
         <v>38</v>
       </c>
       <c r="J853" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="K853" t="s">
         <v>31</v>
       </c>
       <c r="L853">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="854" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>1584</v>
+        <v>2767</v>
       </c>
       <c r="B854">
-        <v>1216</v>
+        <v>3102</v>
       </c>
       <c r="C854" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D854" t="s">
-        <v>1584</v>
-      </c>
-      <c r="F854">
-        <v>38</v>
+        <v>2768</v>
       </c>
       <c r="J854" t="s">
-        <v>1586</v>
+        <v>2769</v>
       </c>
       <c r="K854" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L854">
         <v>8</v>
@@ -28960,108 +28960,111 @@
     </row>
     <row r="855" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="B855">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="C855" t="s">
-        <v>2769</v>
+        <v>2771</v>
       </c>
       <c r="J855" t="s">
-        <v>2770</v>
+        <v>2772</v>
       </c>
       <c r="K855" t="s">
         <v>15</v>
       </c>
       <c r="L855">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="856" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>2771</v>
+        <v>1639</v>
       </c>
       <c r="B856">
-        <v>3103</v>
+        <v>2045</v>
       </c>
       <c r="C856" t="s">
-        <v>2772</v>
+        <v>1640</v>
+      </c>
+      <c r="H856" t="s">
+        <v>1639</v>
       </c>
       <c r="J856" t="s">
-        <v>2773</v>
+        <v>1641</v>
       </c>
       <c r="K856" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L856">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="857" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>1639</v>
+        <v>1587</v>
       </c>
       <c r="B857">
-        <v>2045</v>
+        <v>1175</v>
       </c>
       <c r="C857" t="s">
-        <v>1640</v>
-      </c>
-      <c r="H857" t="s">
-        <v>1639</v>
+        <v>1588</v>
+      </c>
+      <c r="D857" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F857">
+        <v>40</v>
       </c>
       <c r="J857" t="s">
-        <v>1641</v>
+        <v>1589</v>
       </c>
       <c r="K857" t="s">
         <v>31</v>
       </c>
       <c r="L857">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="858" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="B858">
-        <v>1175</v>
+        <v>170</v>
       </c>
       <c r="C858" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="D858" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="F858">
         <v>40</v>
       </c>
-      <c r="J858" t="s">
-        <v>1589</v>
-      </c>
       <c r="K858" t="s">
         <v>31</v>
       </c>
       <c r="L858">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="859" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="B859">
-        <v>170</v>
+        <v>513</v>
       </c>
       <c r="C859" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="D859" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="F859">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K859" t="s">
         <v>31</v>
@@ -29072,48 +29075,51 @@
     </row>
     <row r="860" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="B860">
-        <v>513</v>
+        <v>1235</v>
       </c>
       <c r="C860" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="D860" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="F860">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="H860" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J860" t="s">
+        <v>1596</v>
       </c>
       <c r="K860" t="s">
         <v>31</v>
       </c>
       <c r="L860">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="861" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="B861">
-        <v>1235</v>
+        <v>1275</v>
       </c>
       <c r="C861" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="D861" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="F861">
         <v>40</v>
       </c>
-      <c r="H861" t="s">
-        <v>1594</v>
-      </c>
       <c r="J861" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="K861" t="s">
         <v>31</v>
@@ -29124,123 +29130,117 @@
     </row>
     <row r="862" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="B862">
-        <v>1275</v>
+        <v>1200</v>
       </c>
       <c r="C862" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="D862" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="F862">
         <v>40</v>
       </c>
       <c r="J862" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="K862" t="s">
         <v>31</v>
       </c>
       <c r="L862">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="863" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="B863">
-        <v>1200</v>
+        <v>3104</v>
       </c>
       <c r="C863" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D863" t="s">
-        <v>1600</v>
-      </c>
-      <c r="F863">
-        <v>40</v>
+        <v>1604</v>
+      </c>
+      <c r="E863" t="s">
+        <v>1605</v>
       </c>
       <c r="J863" t="s">
-        <v>1602</v>
+        <v>1606</v>
       </c>
       <c r="K863" t="s">
         <v>31</v>
       </c>
       <c r="L863">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="864" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>1603</v>
+        <v>1607</v>
       </c>
       <c r="B864">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="C864" t="s">
-        <v>1604</v>
+        <v>1608</v>
       </c>
       <c r="E864" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="J864" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="K864" t="s">
         <v>31</v>
       </c>
       <c r="L864">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="865" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="B865">
-        <v>3105</v>
+        <v>1314</v>
       </c>
       <c r="C865" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E865" t="s">
-        <v>1607</v>
+        <v>1611</v>
+      </c>
+      <c r="D865" t="s">
+        <v>1610</v>
+      </c>
+      <c r="F865">
+        <v>40</v>
       </c>
       <c r="J865" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="K865" t="s">
         <v>31</v>
       </c>
       <c r="L865">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="866" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>1610</v>
+        <v>2773</v>
       </c>
       <c r="B866">
-        <v>1314</v>
+        <v>3106</v>
       </c>
       <c r="C866" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D866" t="s">
-        <v>1610</v>
-      </c>
-      <c r="F866">
-        <v>40</v>
+        <v>2774</v>
       </c>
       <c r="J866" t="s">
-        <v>1612</v>
+        <v>2775</v>
       </c>
       <c r="K866" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L866">
         <v>9</v>
@@ -29248,42 +29248,48 @@
     </row>
     <row r="867" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>2774</v>
+        <v>2776</v>
       </c>
       <c r="B867">
-        <v>3106</v>
+        <v>1214</v>
       </c>
       <c r="C867" t="s">
-        <v>2775</v>
+        <v>2777</v>
+      </c>
+      <c r="D867" t="s">
+        <v>2776</v>
+      </c>
+      <c r="F867">
+        <v>40</v>
       </c>
       <c r="J867" t="s">
-        <v>2776</v>
+        <v>2778</v>
       </c>
       <c r="K867" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L867">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="868" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="B868">
-        <v>1214</v>
+        <v>1296</v>
       </c>
       <c r="C868" t="s">
-        <v>2778</v>
+        <v>2780</v>
       </c>
       <c r="D868" t="s">
-        <v>2777</v>
+        <v>2779</v>
       </c>
       <c r="F868">
         <v>40</v>
       </c>
       <c r="J868" t="s">
-        <v>2779</v>
+        <v>2781</v>
       </c>
       <c r="K868" t="s">
         <v>31</v>
@@ -29294,22 +29300,19 @@
     </row>
     <row r="869" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>2780</v>
+        <v>2006</v>
       </c>
       <c r="B869">
-        <v>1296</v>
+        <v>2063</v>
       </c>
       <c r="C869" t="s">
-        <v>2781</v>
-      </c>
-      <c r="D869" t="s">
-        <v>2780</v>
-      </c>
-      <c r="F869">
-        <v>40</v>
+        <v>2007</v>
+      </c>
+      <c r="I869" t="s">
+        <v>2006</v>
       </c>
       <c r="J869" t="s">
-        <v>2782</v>
+        <v>2008</v>
       </c>
       <c r="K869" t="s">
         <v>31</v>
@@ -29320,125 +29323,128 @@
     </row>
     <row r="870" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>2006</v>
+        <v>1613</v>
       </c>
       <c r="B870">
-        <v>2063</v>
+        <v>3107</v>
       </c>
       <c r="C870" t="s">
-        <v>2007</v>
-      </c>
-      <c r="I870" t="s">
-        <v>2006</v>
+        <v>1614</v>
       </c>
       <c r="J870" t="s">
-        <v>2008</v>
+        <v>1615</v>
       </c>
       <c r="K870" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L870">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="871" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="B871">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="C871" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="J871" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="K871" t="s">
         <v>15</v>
       </c>
       <c r="L871">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="872" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="B872">
-        <v>3108</v>
+        <v>300</v>
       </c>
       <c r="C872" t="s">
-        <v>1617</v>
+        <v>1620</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F872">
+        <v>40</v>
       </c>
       <c r="J872" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="K872" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L872">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="873" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="B873">
-        <v>300</v>
+        <v>3109</v>
       </c>
       <c r="C873" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D873" t="s">
-        <v>1619</v>
-      </c>
-      <c r="F873">
-        <v>40</v>
+        <v>1623</v>
       </c>
       <c r="J873" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="K873" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L873">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="874" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="B874">
-        <v>3109</v>
+        <v>180</v>
       </c>
       <c r="C874" t="s">
-        <v>1623</v>
+        <v>1626</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F874">
+        <v>40</v>
       </c>
       <c r="J874" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="K874" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L874">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="875" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="B875">
-        <v>180</v>
+        <v>1263</v>
       </c>
       <c r="C875" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="D875" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="F875">
         <v>40</v>
@@ -29455,25 +29461,19 @@
     </row>
     <row r="876" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="B876">
-        <v>1263</v>
+        <v>3110</v>
       </c>
       <c r="C876" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D876" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F876">
-        <v>40</v>
+        <v>1631</v>
       </c>
       <c r="J876" t="s">
-        <v>1627</v>
+        <v>1632</v>
       </c>
       <c r="K876" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L876">
         <v>9</v>
@@ -29481,105 +29481,105 @@
     </row>
     <row r="877" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="B877">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="C877" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="J877" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="K877" t="s">
         <v>15</v>
       </c>
       <c r="L877">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="878" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="B878">
-        <v>3111</v>
+        <v>2032</v>
       </c>
       <c r="C878" t="s">
-        <v>1634</v>
+        <v>1637</v>
+      </c>
+      <c r="H878" t="s">
+        <v>1636</v>
       </c>
       <c r="J878" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="K878" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L878">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="879" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>1636</v>
+        <v>1642</v>
       </c>
       <c r="B879">
-        <v>2032</v>
+        <v>3112</v>
       </c>
       <c r="C879" t="s">
-        <v>1637</v>
-      </c>
-      <c r="H879" t="s">
-        <v>1636</v>
+        <v>1643</v>
       </c>
       <c r="J879" t="s">
-        <v>1638</v>
+        <v>1644</v>
       </c>
       <c r="K879" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L879">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="880" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="B880">
-        <v>3112</v>
+        <v>2863</v>
       </c>
       <c r="C880" t="s">
-        <v>1643</v>
+        <v>1646</v>
+      </c>
+      <c r="I880" t="s">
+        <v>1645</v>
       </c>
       <c r="J880" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="K880" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L880">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="881" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="B881">
-        <v>2863</v>
+        <v>3113</v>
       </c>
       <c r="C881" t="s">
-        <v>1646</v>
-      </c>
-      <c r="I881" t="s">
-        <v>1645</v>
+        <v>1649</v>
       </c>
       <c r="J881" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="K881" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L881">
         <v>9</v>
@@ -29587,59 +29587,59 @@
     </row>
     <row r="882" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="B882">
-        <v>3113</v>
+        <v>2635</v>
       </c>
       <c r="C882" t="s">
-        <v>1649</v>
+        <v>1652</v>
+      </c>
+      <c r="I882" t="s">
+        <v>1651</v>
       </c>
       <c r="J882" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="K882" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L882">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="883" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="B883">
-        <v>2635</v>
+        <v>3114</v>
       </c>
       <c r="C883" t="s">
-        <v>1652</v>
-      </c>
-      <c r="I883" t="s">
-        <v>1651</v>
+        <v>1655</v>
       </c>
       <c r="J883" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="K883" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L883">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="884" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="B884">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="C884" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="J884" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="K884" t="s">
         <v>15</v>
@@ -29650,472 +29650,472 @@
     </row>
     <row r="885" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="B885">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="C885" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="J885" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="K885" t="s">
         <v>15</v>
       </c>
       <c r="L885">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="886" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="B886">
-        <v>3116</v>
+        <v>1236</v>
       </c>
       <c r="C886" t="s">
-        <v>1661</v>
+        <v>1664</v>
+      </c>
+      <c r="D886" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F886">
+        <v>40</v>
+      </c>
+      <c r="H886" t="s">
+        <v>1663</v>
       </c>
       <c r="J886" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="K886" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L886">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="887" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="B887">
-        <v>1236</v>
+        <v>3117</v>
       </c>
       <c r="C887" t="s">
-        <v>1664</v>
-      </c>
-      <c r="D887" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F887">
-        <v>40</v>
-      </c>
-      <c r="H887" t="s">
-        <v>1663</v>
+        <v>1667</v>
       </c>
       <c r="J887" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="K887" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L887">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="888" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="B888">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="C888" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="J888" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="K888" t="s">
         <v>15</v>
       </c>
       <c r="L888">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="889" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="B889">
-        <v>3118</v>
+        <v>1250</v>
       </c>
       <c r="C889" t="s">
-        <v>1670</v>
+        <v>1673</v>
+      </c>
+      <c r="D889" t="s">
+        <v>1672</v>
+      </c>
+      <c r="F889">
+        <v>40</v>
       </c>
       <c r="J889" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="K889" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L889">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="890" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="B890">
-        <v>1250</v>
+        <v>3119</v>
       </c>
       <c r="C890" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D890" t="s">
-        <v>1672</v>
-      </c>
-      <c r="F890">
-        <v>40</v>
+        <v>1676</v>
       </c>
       <c r="J890" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="K890" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L890">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="891" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="B891">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="C891" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="J891" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="K891" t="s">
         <v>15</v>
       </c>
       <c r="L891">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="892" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="B892">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="C892" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="J892" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="K892" t="s">
         <v>15</v>
       </c>
       <c r="L892">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="893" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="B893">
-        <v>3121</v>
+        <v>298</v>
       </c>
       <c r="C893" t="s">
-        <v>1682</v>
+        <v>1685</v>
+      </c>
+      <c r="D893" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F893">
+        <v>40</v>
       </c>
       <c r="J893" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="K893" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L893">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="894" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="B894">
-        <v>298</v>
+        <v>3122</v>
       </c>
       <c r="C894" t="s">
-        <v>1685</v>
-      </c>
-      <c r="D894" t="s">
-        <v>1684</v>
-      </c>
-      <c r="F894">
-        <v>40</v>
+        <v>1688</v>
       </c>
       <c r="J894" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="K894" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L894">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="895" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="B895">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="C895" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="J895" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="K895" t="s">
         <v>15</v>
       </c>
       <c r="L895">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="896" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>1690</v>
+        <v>1713</v>
       </c>
       <c r="B896">
-        <v>3123</v>
+        <v>3127</v>
       </c>
       <c r="C896" t="s">
-        <v>1691</v>
+        <v>1714</v>
       </c>
       <c r="J896" t="s">
-        <v>1692</v>
+        <v>1715</v>
       </c>
       <c r="K896" t="s">
         <v>15</v>
       </c>
       <c r="L896">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="897" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="B897">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="C897" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="J897" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="K897" t="s">
         <v>15</v>
       </c>
       <c r="L897">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="898" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="B898">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="C898" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="J898" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="K898" t="s">
         <v>15</v>
       </c>
       <c r="L898">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="899" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>1719</v>
+        <v>1015</v>
       </c>
       <c r="B899">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="C899" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="J899" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="K899" t="s">
         <v>15</v>
       </c>
       <c r="L899">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="900" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>1015</v>
+        <v>1724</v>
       </c>
       <c r="B900">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C900" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="J900" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="K900" t="s">
         <v>15</v>
       </c>
       <c r="L900">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="901" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="B901">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="C901" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="J901" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="K901" t="s">
         <v>15</v>
       </c>
       <c r="L901">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="902" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="B902">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="C902" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="J902" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="K902" t="s">
         <v>15</v>
       </c>
       <c r="L902">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="903" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="B903">
-        <v>3133</v>
+        <v>623</v>
       </c>
       <c r="C903" t="s">
-        <v>1731</v>
+        <v>1734</v>
+      </c>
+      <c r="D903" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F903">
+        <v>40</v>
       </c>
       <c r="J903" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="K903" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L903">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="904" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="B904">
-        <v>623</v>
+        <v>3134</v>
       </c>
       <c r="C904" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D904" t="s">
-        <v>1733</v>
-      </c>
-      <c r="F904">
-        <v>40</v>
+        <v>1737</v>
       </c>
       <c r="J904" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="K904" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L904">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="905" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="B905">
-        <v>3134</v>
+        <v>609</v>
       </c>
       <c r="C905" t="s">
-        <v>1737</v>
+        <v>1740</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1739</v>
+      </c>
+      <c r="F905">
+        <v>38</v>
       </c>
       <c r="J905" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="K905" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L905">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="906" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="B906">
-        <v>609</v>
+        <v>3135</v>
       </c>
       <c r="C906" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D906" t="s">
-        <v>1739</v>
-      </c>
-      <c r="F906">
-        <v>38</v>
+        <v>1743</v>
       </c>
       <c r="J906" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="K906" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L906">
         <v>6</v>
@@ -30123,42 +30123,48 @@
     </row>
     <row r="907" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="B907">
-        <v>3135</v>
+        <v>3</v>
       </c>
       <c r="C907" t="s">
-        <v>1743</v>
+        <v>1746</v>
+      </c>
+      <c r="D907" t="s">
+        <v>1745</v>
+      </c>
+      <c r="F907">
+        <v>2</v>
       </c>
       <c r="J907" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="K907" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L907">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="908" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="B908">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="C908" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="D908" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="F908">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="J908" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="K908" t="s">
         <v>31</v>
@@ -30169,48 +30175,42 @@
     </row>
     <row r="909" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="B909">
-        <v>235</v>
+        <v>1244</v>
       </c>
       <c r="C909" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
       <c r="D909" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="F909">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J909" t="s">
-        <v>1750</v>
+        <v>390</v>
       </c>
       <c r="K909" t="s">
         <v>31</v>
       </c>
       <c r="L909">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="910" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>1751</v>
+        <v>2782</v>
       </c>
       <c r="B910">
-        <v>1244</v>
+        <v>3136</v>
       </c>
       <c r="C910" t="s">
-        <v>1752</v>
-      </c>
-      <c r="D910" t="s">
-        <v>1751</v>
-      </c>
-      <c r="F910">
-        <v>39</v>
+        <v>2783</v>
       </c>
       <c r="J910" t="s">
-        <v>390</v>
+        <v>2784</v>
       </c>
       <c r="K910" t="s">
         <v>31</v>
@@ -30221,151 +30221,148 @@
     </row>
     <row r="911" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>2783</v>
+        <v>1753</v>
       </c>
       <c r="B911">
-        <v>3136</v>
+        <v>1347</v>
       </c>
       <c r="C911" t="s">
-        <v>2784</v>
+        <v>1754</v>
+      </c>
+      <c r="D911" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F911">
+        <v>2</v>
       </c>
       <c r="J911" t="s">
-        <v>2785</v>
+        <v>1747</v>
       </c>
       <c r="K911" t="s">
         <v>31</v>
       </c>
       <c r="L911">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="912" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="B912">
-        <v>1347</v>
+        <v>3137</v>
       </c>
       <c r="C912" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D912" t="s">
-        <v>1753</v>
-      </c>
-      <c r="F912">
-        <v>2</v>
+        <v>1756</v>
       </c>
       <c r="J912" t="s">
-        <v>1747</v>
+        <v>1757</v>
       </c>
       <c r="K912" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L912">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="913" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
       <c r="B913">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="C913" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="J913" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="K913" t="s">
         <v>15</v>
       </c>
       <c r="L913">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="914" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
       <c r="B914">
-        <v>3138</v>
+        <v>41</v>
       </c>
       <c r="C914" t="s">
-        <v>1759</v>
+        <v>1762</v>
+      </c>
+      <c r="D914" t="s">
+        <v>1761</v>
+      </c>
+      <c r="F914">
+        <v>22</v>
       </c>
       <c r="J914" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="K914" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L914">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="915" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>1761</v>
+        <v>2785</v>
       </c>
       <c r="B915">
-        <v>41</v>
+        <v>3139</v>
       </c>
       <c r="C915" t="s">
-        <v>1762</v>
-      </c>
-      <c r="D915" t="s">
-        <v>1761</v>
-      </c>
-      <c r="F915">
-        <v>22</v>
-      </c>
-      <c r="J915" t="s">
-        <v>1763</v>
+        <v>2786</v>
       </c>
       <c r="K915" t="s">
         <v>31</v>
       </c>
       <c r="L915">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="916" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>2786</v>
+        <v>1764</v>
       </c>
       <c r="B916">
-        <v>3139</v>
+        <v>1225</v>
       </c>
       <c r="C916" t="s">
-        <v>2787</v>
+        <v>1765</v>
+      </c>
+      <c r="D916" t="s">
+        <v>1764</v>
+      </c>
+      <c r="F916">
+        <v>22</v>
+      </c>
+      <c r="J916" t="s">
+        <v>1763</v>
       </c>
       <c r="K916" t="s">
         <v>31</v>
       </c>
       <c r="L916">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="917" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>1764</v>
+        <v>2787</v>
       </c>
       <c r="B917">
-        <v>1225</v>
+        <v>3140</v>
       </c>
       <c r="C917" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D917" t="s">
-        <v>1764</v>
-      </c>
-      <c r="F917">
-        <v>22</v>
-      </c>
-      <c r="J917" t="s">
-        <v>1763</v>
+        <v>2788</v>
       </c>
       <c r="K917" t="s">
         <v>31</v>
@@ -30376,151 +30373,160 @@
     </row>
     <row r="918" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>2788</v>
+        <v>1766</v>
       </c>
       <c r="B918">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="C918" t="s">
-        <v>2789</v>
+        <v>1767</v>
+      </c>
+      <c r="J918" t="s">
+        <v>1768</v>
       </c>
       <c r="K918" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L918">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="919" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="B919">
-        <v>3141</v>
+        <v>1215</v>
       </c>
       <c r="C919" t="s">
-        <v>1767</v>
+        <v>1770</v>
+      </c>
+      <c r="D919" t="s">
+        <v>1769</v>
+      </c>
+      <c r="F919">
+        <v>38</v>
       </c>
       <c r="J919" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="K919" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L919">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="920" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="B920">
-        <v>1215</v>
+        <v>3142</v>
       </c>
       <c r="C920" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D920" t="s">
-        <v>1769</v>
-      </c>
-      <c r="F920">
-        <v>38</v>
+        <v>1773</v>
       </c>
       <c r="J920" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="K920" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L920">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="921" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="B921">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="C921" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
       <c r="J921" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="K921" t="s">
         <v>15</v>
       </c>
       <c r="L921">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="922" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="B922">
-        <v>3143</v>
+        <v>31</v>
       </c>
       <c r="C922" t="s">
-        <v>1776</v>
+        <v>1779</v>
+      </c>
+      <c r="D922" t="s">
+        <v>1778</v>
+      </c>
+      <c r="F922">
+        <v>27</v>
       </c>
       <c r="J922" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="K922" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L922">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="923" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="B923">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="C923" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
       <c r="D923" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="F923">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J923" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="K923" t="s">
         <v>31</v>
       </c>
       <c r="L923">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="924" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="B924">
-        <v>138</v>
+        <v>357</v>
       </c>
       <c r="C924" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
       <c r="D924" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="F924">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J924" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="K924" t="s">
         <v>31</v>
@@ -30531,22 +30537,22 @@
     </row>
     <row r="925" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="B925">
-        <v>357</v>
+        <v>1353</v>
       </c>
       <c r="C925" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
       <c r="D925" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="F925">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J925" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="K925" t="s">
         <v>31</v>
@@ -30557,157 +30563,151 @@
     </row>
     <row r="926" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>1787</v>
+        <v>1789</v>
       </c>
       <c r="B926">
-        <v>1353</v>
+        <v>3144</v>
       </c>
       <c r="C926" t="s">
-        <v>1788</v>
-      </c>
-      <c r="D926" t="s">
-        <v>1787</v>
-      </c>
-      <c r="F926">
-        <v>40</v>
+        <v>1790</v>
       </c>
       <c r="J926" t="s">
-        <v>1783</v>
+        <v>1791</v>
       </c>
       <c r="K926" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L926">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="927" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="B927">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="C927" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="J927" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
       <c r="K927" t="s">
         <v>15</v>
       </c>
       <c r="L927">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="928" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="B928">
-        <v>3145</v>
+        <v>1257</v>
       </c>
       <c r="C928" t="s">
-        <v>1793</v>
+        <v>1796</v>
+      </c>
+      <c r="D928" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F928">
+        <v>33</v>
       </c>
       <c r="J928" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="K928" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L928">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="929" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="B929">
-        <v>1257</v>
+        <v>3148</v>
       </c>
       <c r="C929" t="s">
-        <v>1796</v>
-      </c>
-      <c r="D929" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F929">
-        <v>33</v>
+        <v>1799</v>
       </c>
       <c r="J929" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
       <c r="K929" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L929">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="930" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>1798</v>
+        <v>1804</v>
       </c>
       <c r="B930">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="C930" t="s">
-        <v>1799</v>
+        <v>1805</v>
       </c>
       <c r="J930" t="s">
-        <v>1800</v>
+        <v>1806</v>
       </c>
       <c r="K930" t="s">
         <v>15</v>
       </c>
       <c r="L930">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="931" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="B931">
-        <v>3149</v>
+        <v>459</v>
       </c>
       <c r="C931" t="s">
-        <v>1805</v>
+        <v>1808</v>
+      </c>
+      <c r="D931" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F931">
+        <v>40</v>
       </c>
       <c r="J931" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="K931" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L931">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="932" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
       <c r="B932">
-        <v>459</v>
+        <v>3150</v>
       </c>
       <c r="C932" t="s">
-        <v>1808</v>
-      </c>
-      <c r="D932" t="s">
-        <v>1807</v>
-      </c>
-      <c r="F932">
-        <v>40</v>
+        <v>1811</v>
       </c>
       <c r="J932" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="K932" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L932">
         <v>6</v>
@@ -30715,42 +30715,48 @@
     </row>
     <row r="933" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
       <c r="B933">
-        <v>3150</v>
+        <v>86</v>
       </c>
       <c r="C933" t="s">
-        <v>1811</v>
+        <v>1814</v>
+      </c>
+      <c r="D933" t="s">
+        <v>1813</v>
+      </c>
+      <c r="F933">
+        <v>13</v>
       </c>
       <c r="J933" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="K933" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L933">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="934" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="B934">
-        <v>86</v>
+        <v>693</v>
       </c>
       <c r="C934" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="D934" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="F934">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J934" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
       <c r="K934" t="s">
         <v>31</v>
@@ -30761,22 +30767,16 @@
     </row>
     <row r="935" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>1816</v>
+        <v>2789</v>
       </c>
       <c r="B935">
-        <v>693</v>
+        <v>3151</v>
       </c>
       <c r="C935" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D935" t="s">
-        <v>1816</v>
-      </c>
-      <c r="F935">
-        <v>40</v>
+        <v>2790</v>
       </c>
       <c r="J935" t="s">
-        <v>1818</v>
+        <v>2791</v>
       </c>
       <c r="K935" t="s">
         <v>31</v>
@@ -30787,19 +30787,19 @@
     </row>
     <row r="936" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>2790</v>
+        <v>1819</v>
       </c>
       <c r="B936">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="C936" t="s">
-        <v>2791</v>
+        <v>1820</v>
       </c>
       <c r="J936" t="s">
-        <v>2792</v>
+        <v>1821</v>
       </c>
       <c r="K936" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L936">
         <v>7</v>
@@ -30807,112 +30807,118 @@
     </row>
     <row r="937" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="B937">
-        <v>3152</v>
+        <v>1028</v>
       </c>
       <c r="C937" t="s">
-        <v>1820</v>
+        <v>1823</v>
+      </c>
+      <c r="D937" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F937">
+        <v>40</v>
       </c>
       <c r="J937" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="K937" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L937">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="938" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
       <c r="B938">
-        <v>1028</v>
+        <v>3153</v>
       </c>
       <c r="C938" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D938" t="s">
-        <v>1822</v>
-      </c>
-      <c r="F938">
-        <v>40</v>
+        <v>1826</v>
+      </c>
+      <c r="E938" t="s">
+        <v>1827</v>
       </c>
       <c r="J938" t="s">
-        <v>1824</v>
+        <v>1828</v>
       </c>
       <c r="K938" t="s">
         <v>31</v>
       </c>
       <c r="L938">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="939" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>1825</v>
+        <v>1829</v>
       </c>
       <c r="B939">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="C939" t="s">
-        <v>1826</v>
-      </c>
-      <c r="E939" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="J939" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
       <c r="K939" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L939">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="940" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="B940">
-        <v>3154</v>
+        <v>63</v>
       </c>
       <c r="C940" t="s">
-        <v>1830</v>
+        <v>1833</v>
+      </c>
+      <c r="D940" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F940">
+        <v>40</v>
+      </c>
+      <c r="H940" t="s">
+        <v>1832</v>
       </c>
       <c r="J940" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="K940" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L940">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="941" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="B941">
-        <v>63</v>
+        <v>1196</v>
       </c>
       <c r="C941" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="D941" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="F941">
         <v>40</v>
       </c>
-      <c r="H941" t="s">
-        <v>1832</v>
-      </c>
       <c r="J941" t="s">
         <v>1834</v>
       </c>
@@ -30925,22 +30931,22 @@
     </row>
     <row r="942" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="B942">
-        <v>1196</v>
+        <v>238</v>
       </c>
       <c r="C942" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="D942" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="F942">
         <v>40</v>
       </c>
       <c r="J942" t="s">
-        <v>1834</v>
+        <v>1839</v>
       </c>
       <c r="K942" t="s">
         <v>31</v>
@@ -30951,22 +30957,22 @@
     </row>
     <row r="943" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="B943">
-        <v>238</v>
+        <v>612</v>
       </c>
       <c r="C943" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
       <c r="D943" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="F943">
         <v>40</v>
       </c>
       <c r="J943" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="K943" t="s">
         <v>31</v>
@@ -30977,62 +30983,62 @@
     </row>
     <row r="944" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="B944">
-        <v>612</v>
+        <v>3155</v>
       </c>
       <c r="C944" t="s">
-        <v>1841</v>
-      </c>
-      <c r="D944" t="s">
-        <v>1840</v>
-      </c>
-      <c r="F944">
-        <v>40</v>
+        <v>1843</v>
       </c>
       <c r="J944" t="s">
-        <v>1834</v>
+        <v>1844</v>
       </c>
       <c r="K944" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L944">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="945" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="B945">
-        <v>3155</v>
+        <v>32</v>
       </c>
       <c r="C945" t="s">
-        <v>1843</v>
+        <v>1846</v>
+      </c>
+      <c r="D945" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F945">
+        <v>21</v>
       </c>
       <c r="J945" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="K945" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L945">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="946" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="B946">
-        <v>32</v>
+        <v>1197</v>
       </c>
       <c r="C946" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="D946" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="F946">
         <v>21</v>
@@ -31049,16 +31055,16 @@
     </row>
     <row r="947" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="B947">
-        <v>1197</v>
+        <v>1303</v>
       </c>
       <c r="C947" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="D947" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="F947">
         <v>21</v>
@@ -31075,16 +31081,16 @@
     </row>
     <row r="948" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="B948">
-        <v>1303</v>
+        <v>1342</v>
       </c>
       <c r="C948" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="D948" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="F948">
         <v>21</v>
@@ -31101,25 +31107,19 @@
     </row>
     <row r="949" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="B949">
-        <v>1342</v>
+        <v>3156</v>
       </c>
       <c r="C949" t="s">
-        <v>1853</v>
-      </c>
-      <c r="D949" t="s">
-        <v>1852</v>
-      </c>
-      <c r="F949">
-        <v>21</v>
+        <v>1855</v>
       </c>
       <c r="J949" t="s">
-        <v>1847</v>
+        <v>1856</v>
       </c>
       <c r="K949" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L949">
         <v>7</v>
@@ -31127,42 +31127,48 @@
     </row>
     <row r="950" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="B950">
-        <v>3156</v>
+        <v>189</v>
       </c>
       <c r="C950" t="s">
-        <v>1855</v>
+        <v>1858</v>
+      </c>
+      <c r="D950" t="s">
+        <v>1857</v>
+      </c>
+      <c r="F950">
+        <v>40</v>
       </c>
       <c r="J950" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="K950" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L950">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="951" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="B951">
-        <v>189</v>
+        <v>955</v>
       </c>
       <c r="C951" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="D951" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="F951">
         <v>40</v>
       </c>
       <c r="J951" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="K951" t="s">
         <v>31</v>
@@ -31173,77 +31179,71 @@
     </row>
     <row r="952" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="B952">
-        <v>955</v>
+        <v>857</v>
       </c>
       <c r="C952" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="D952" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="F952">
         <v>40</v>
       </c>
       <c r="J952" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="K952" t="s">
         <v>31</v>
       </c>
       <c r="L952">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="953" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="B953">
-        <v>857</v>
+        <v>265</v>
       </c>
       <c r="C953" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="D953" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="F953">
         <v>40</v>
       </c>
       <c r="J953" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="K953" t="s">
         <v>31</v>
       </c>
       <c r="L953">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="954" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="B954">
-        <v>265</v>
+        <v>3157</v>
       </c>
       <c r="C954" t="s">
-        <v>1867</v>
-      </c>
-      <c r="D954" t="s">
-        <v>1866</v>
-      </c>
-      <c r="F954">
-        <v>40</v>
+        <v>1870</v>
       </c>
       <c r="J954" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="K954" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L954">
         <v>8</v>
@@ -31251,137 +31251,146 @@
     </row>
     <row r="955" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="B955">
-        <v>3157</v>
+        <v>111</v>
       </c>
       <c r="C955" t="s">
-        <v>1870</v>
+        <v>1873</v>
+      </c>
+      <c r="D955" t="s">
+        <v>1872</v>
+      </c>
+      <c r="F955">
+        <v>40</v>
       </c>
       <c r="J955" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="K955" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L955">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="956" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="B956">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C956" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="D956" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="F956">
         <v>40</v>
       </c>
       <c r="J956" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="K956" t="s">
         <v>31</v>
       </c>
       <c r="L956">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="957" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="B957">
-        <v>131</v>
+        <v>3158</v>
       </c>
       <c r="C957" t="s">
-        <v>1876</v>
-      </c>
-      <c r="D957" t="s">
-        <v>1875</v>
-      </c>
-      <c r="F957">
-        <v>40</v>
+        <v>1879</v>
       </c>
       <c r="J957" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="K957" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L957">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="958" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="B958">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="C958" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="J958" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
       <c r="K958" t="s">
         <v>15</v>
       </c>
       <c r="L958">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="959" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="B959">
-        <v>3159</v>
+        <v>169</v>
       </c>
       <c r="C959" t="s">
-        <v>1882</v>
+        <v>1885</v>
+      </c>
+      <c r="D959" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F959">
+        <v>40</v>
+      </c>
+      <c r="H959" t="s">
+        <v>1884</v>
       </c>
       <c r="J959" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="K959" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L959">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="960" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="B960">
-        <v>169</v>
+        <v>366</v>
       </c>
       <c r="C960" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="D960" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="F960">
         <v>40</v>
       </c>
-      <c r="H960" t="s">
-        <v>1884</v>
+      <c r="G960" t="s">
+        <v>1887</v>
       </c>
       <c r="J960" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="K960" t="s">
         <v>31</v>
@@ -31392,28 +31401,19 @@
     </row>
     <row r="961" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="B961">
-        <v>366</v>
+        <v>3160</v>
       </c>
       <c r="C961" t="s">
-        <v>1888</v>
-      </c>
-      <c r="D961" t="s">
-        <v>1887</v>
-      </c>
-      <c r="F961">
-        <v>40</v>
-      </c>
-      <c r="G961" t="s">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="J961" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="K961" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L961">
         <v>8</v>
@@ -31424,37 +31424,46 @@
         <v>1890</v>
       </c>
       <c r="B962">
-        <v>3160</v>
+        <v>1293</v>
       </c>
       <c r="C962" t="s">
-        <v>1891</v>
-      </c>
-      <c r="J962" t="s">
-        <v>1892</v>
+        <v>1893</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1890</v>
+      </c>
+      <c r="F962">
+        <v>40</v>
       </c>
       <c r="K962" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L962">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="963" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="B963">
-        <v>1293</v>
+        <v>1126</v>
       </c>
       <c r="C963" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="D963" t="s">
-        <v>1890</v>
+        <v>1894</v>
       </c>
       <c r="F963">
         <v>40</v>
       </c>
+      <c r="G963" t="s">
+        <v>1890</v>
+      </c>
+      <c r="J963" t="s">
+        <v>1896</v>
+      </c>
       <c r="K963" t="s">
         <v>31</v>
       </c>
@@ -31464,260 +31473,251 @@
     </row>
     <row r="964" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="B964">
-        <v>1126</v>
+        <v>3161</v>
       </c>
       <c r="C964" t="s">
-        <v>1895</v>
-      </c>
-      <c r="D964" t="s">
-        <v>1894</v>
-      </c>
-      <c r="F964">
-        <v>40</v>
-      </c>
-      <c r="G964" t="s">
-        <v>1890</v>
+        <v>1898</v>
       </c>
       <c r="J964" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="K964" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L964">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="965" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="B965">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="C965" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="J965" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="K965" t="s">
         <v>15</v>
       </c>
       <c r="L965">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="966" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="B966">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="C966" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="J966" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="K966" t="s">
         <v>15</v>
       </c>
       <c r="L966">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="967" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="B967">
-        <v>3163</v>
+        <v>1233</v>
       </c>
       <c r="C967" t="s">
-        <v>1904</v>
-      </c>
-      <c r="J967" t="s">
-        <v>1905</v>
+        <v>1907</v>
+      </c>
+      <c r="D967" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F967">
+        <v>40</v>
       </c>
       <c r="K967" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L967">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="968" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>1906</v>
+        <v>1829</v>
       </c>
       <c r="B968">
-        <v>1233</v>
+        <v>3164</v>
       </c>
       <c r="C968" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D968" t="s">
-        <v>1906</v>
-      </c>
-      <c r="F968">
-        <v>40</v>
+        <v>1908</v>
+      </c>
+      <c r="J968" t="s">
+        <v>1909</v>
       </c>
       <c r="K968" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L968">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="969" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>1829</v>
+        <v>1910</v>
       </c>
       <c r="B969">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="C969" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="J969" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="K969" t="s">
         <v>15</v>
       </c>
       <c r="L969">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="970" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="B970">
-        <v>3165</v>
+        <v>1301</v>
       </c>
       <c r="C970" t="s">
-        <v>1911</v>
+        <v>1914</v>
+      </c>
+      <c r="D970" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F970">
+        <v>21</v>
       </c>
       <c r="J970" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="K970" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L970">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="971" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
       <c r="B971">
-        <v>1301</v>
+        <v>3166</v>
       </c>
       <c r="C971" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D971" t="s">
-        <v>1913</v>
-      </c>
-      <c r="F971">
-        <v>21</v>
+        <v>1917</v>
       </c>
       <c r="J971" t="s">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="K971" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L971">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="972" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="B972">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="C972" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="J972" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="K972" t="s">
         <v>15</v>
       </c>
       <c r="L972">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="973" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
       <c r="B973">
-        <v>3167</v>
+        <v>1329</v>
       </c>
       <c r="C973" t="s">
-        <v>1920</v>
+        <v>1923</v>
+      </c>
+      <c r="D973" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F973">
+        <v>40</v>
       </c>
       <c r="J973" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="K973" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L973">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="974" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="B974">
-        <v>1329</v>
+        <v>3168</v>
       </c>
       <c r="C974" t="s">
-        <v>1923</v>
-      </c>
-      <c r="D974" t="s">
-        <v>1922</v>
-      </c>
-      <c r="F974">
-        <v>40</v>
+        <v>1926</v>
       </c>
       <c r="J974" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="K974" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L974">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="975" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="B975">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="C975" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="J975" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
       <c r="K975" t="s">
         <v>15</v>
@@ -31728,16 +31728,16 @@
     </row>
     <row r="976" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="B976">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="C976" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="J976" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="K976" t="s">
         <v>15</v>
@@ -31748,36 +31748,42 @@
     </row>
     <row r="977" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="B977">
-        <v>3171</v>
+        <v>140</v>
       </c>
       <c r="C977" t="s">
-        <v>1932</v>
+        <v>1935</v>
+      </c>
+      <c r="D977" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F977">
+        <v>20</v>
       </c>
       <c r="J977" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
       <c r="K977" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L977">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="978" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="B978">
-        <v>140</v>
+        <v>1267</v>
       </c>
       <c r="C978" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="D978" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="F978">
         <v>20</v>
@@ -31794,125 +31800,125 @@
     </row>
     <row r="979" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="B979">
-        <v>1267</v>
+        <v>3172</v>
       </c>
       <c r="C979" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D979" t="s">
-        <v>1937</v>
-      </c>
-      <c r="F979">
-        <v>20</v>
+        <v>1940</v>
       </c>
       <c r="J979" t="s">
-        <v>1936</v>
+        <v>1941</v>
       </c>
       <c r="K979" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L979">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="980" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="B980">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="C980" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="J980" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="K980" t="s">
         <v>15</v>
       </c>
       <c r="L980">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="981" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="B981">
-        <v>3173</v>
+        <v>3187</v>
       </c>
       <c r="C981" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="J981" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="K981" t="s">
         <v>15</v>
       </c>
       <c r="L981">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="982" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="B982">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="C982" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="J982" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="K982" t="s">
         <v>15</v>
       </c>
       <c r="L982">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="983" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="B983">
-        <v>3188</v>
+        <v>370</v>
       </c>
       <c r="C983" t="s">
-        <v>1949</v>
-      </c>
-      <c r="J983" t="s">
-        <v>1950</v>
+        <v>1952</v>
+      </c>
+      <c r="D983" t="s">
+        <v>1951</v>
+      </c>
+      <c r="F983">
+        <v>40</v>
       </c>
       <c r="K983" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L983">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="984" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="B984">
-        <v>370</v>
+        <v>110</v>
       </c>
       <c r="C984" t="s">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="D984" t="s">
-        <v>1951</v>
+        <v>1953</v>
       </c>
       <c r="F984">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="J984" t="s">
+        <v>1955</v>
       </c>
       <c r="K984" t="s">
         <v>31</v>
@@ -31923,22 +31929,19 @@
     </row>
     <row r="985" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="B985">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="C985" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="D985" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="F985">
-        <v>39</v>
-      </c>
-      <c r="J985" t="s">
-        <v>1955</v>
+        <v>40</v>
       </c>
       <c r="K985" t="s">
         <v>31</v>
@@ -31949,16 +31952,16 @@
     </row>
     <row r="986" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="B986">
-        <v>144</v>
+        <v>1261</v>
       </c>
       <c r="C986" t="s">
-        <v>1957</v>
+        <v>1959</v>
       </c>
       <c r="D986" t="s">
-        <v>1956</v>
+        <v>1958</v>
       </c>
       <c r="F986">
         <v>40</v>
@@ -31972,19 +31975,19 @@
     </row>
     <row r="987" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>1958</v>
+        <v>1960</v>
       </c>
       <c r="B987">
-        <v>1261</v>
+        <v>2649</v>
       </c>
       <c r="C987" t="s">
-        <v>1959</v>
-      </c>
-      <c r="D987" t="s">
-        <v>1958</v>
-      </c>
-      <c r="F987">
-        <v>40</v>
+        <v>1961</v>
+      </c>
+      <c r="I987" t="s">
+        <v>1960</v>
+      </c>
+      <c r="J987" t="s">
+        <v>1955</v>
       </c>
       <c r="K987" t="s">
         <v>31</v>
@@ -31995,19 +31998,19 @@
     </row>
     <row r="988" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="B988">
-        <v>2649</v>
+        <v>2728</v>
       </c>
       <c r="C988" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
       <c r="I988" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="J988" t="s">
-        <v>1955</v>
+        <v>1964</v>
       </c>
       <c r="K988" t="s">
         <v>31</v>
@@ -32018,39 +32021,36 @@
     </row>
     <row r="989" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
-        <v>1962</v>
+        <v>1973</v>
       </c>
       <c r="B989">
-        <v>2728</v>
+        <v>2115</v>
       </c>
       <c r="C989" t="s">
-        <v>1963</v>
+        <v>1974</v>
       </c>
       <c r="I989" t="s">
-        <v>1962</v>
-      </c>
-      <c r="J989" t="s">
-        <v>1964</v>
+        <v>1973</v>
       </c>
       <c r="K989" t="s">
         <v>31</v>
       </c>
       <c r="L989">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="990" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="B990">
-        <v>2115</v>
+        <v>2158</v>
       </c>
       <c r="C990" t="s">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="I990" t="s">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="K990" t="s">
         <v>31</v>
@@ -32061,16 +32061,16 @@
     </row>
     <row r="991" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="B991">
-        <v>2158</v>
+        <v>2245</v>
       </c>
       <c r="C991" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="I991" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="K991" t="s">
         <v>31</v>
@@ -32081,16 +32081,16 @@
     </row>
     <row r="992" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="B992">
-        <v>2245</v>
+        <v>2289</v>
       </c>
       <c r="C992" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="I992" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="K992" t="s">
         <v>31</v>
@@ -32101,16 +32101,16 @@
     </row>
     <row r="993" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>1979</v>
+        <v>1965</v>
       </c>
       <c r="B993">
-        <v>2289</v>
+        <v>2340</v>
       </c>
       <c r="C993" t="s">
-        <v>1980</v>
+        <v>1966</v>
       </c>
       <c r="I993" t="s">
-        <v>1979</v>
+        <v>1965</v>
       </c>
       <c r="K993" t="s">
         <v>31</v>
@@ -32121,16 +32121,16 @@
     </row>
     <row r="994" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>1965</v>
+        <v>1983</v>
       </c>
       <c r="B994">
-        <v>2340</v>
+        <v>2492</v>
       </c>
       <c r="C994" t="s">
-        <v>1966</v>
+        <v>1984</v>
       </c>
       <c r="I994" t="s">
-        <v>1965</v>
+        <v>1983</v>
       </c>
       <c r="K994" t="s">
         <v>31</v>
@@ -32141,16 +32141,16 @@
     </row>
     <row r="995" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>1983</v>
+        <v>1969</v>
       </c>
       <c r="B995">
-        <v>2492</v>
+        <v>2692</v>
       </c>
       <c r="C995" t="s">
-        <v>1984</v>
+        <v>1970</v>
       </c>
       <c r="I995" t="s">
-        <v>1983</v>
+        <v>1969</v>
       </c>
       <c r="K995" t="s">
         <v>31</v>
@@ -32161,16 +32161,16 @@
     </row>
     <row r="996" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="B996">
-        <v>2692</v>
+        <v>2759</v>
       </c>
       <c r="C996" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="I996" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="K996" t="s">
         <v>31</v>
@@ -32181,16 +32181,16 @@
     </row>
     <row r="997" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="B997">
-        <v>2759</v>
+        <v>2843</v>
       </c>
       <c r="C997" t="s">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="I997" t="s">
-        <v>1967</v>
+        <v>1971</v>
       </c>
       <c r="K997" t="s">
         <v>31</v>
@@ -32201,16 +32201,16 @@
     </row>
     <row r="998" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>1971</v>
+        <v>1981</v>
       </c>
       <c r="B998">
-        <v>2843</v>
+        <v>2918</v>
       </c>
       <c r="C998" t="s">
-        <v>1972</v>
+        <v>1982</v>
       </c>
       <c r="I998" t="s">
-        <v>1971</v>
+        <v>1981</v>
       </c>
       <c r="K998" t="s">
         <v>31</v>
@@ -32221,16 +32221,28 @@
     </row>
     <row r="999" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>1981</v>
+        <v>1985</v>
       </c>
       <c r="B999">
-        <v>2918</v>
+        <v>27</v>
       </c>
       <c r="C999" t="s">
-        <v>1982</v>
+        <v>1986</v>
+      </c>
+      <c r="D999" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F999">
+        <v>24</v>
+      </c>
+      <c r="H999" t="s">
+        <v>1985</v>
       </c>
       <c r="I999" t="s">
-        <v>1981</v>
+        <v>1985</v>
+      </c>
+      <c r="J999" t="s">
+        <v>1987</v>
       </c>
       <c r="K999" t="s">
         <v>31</v>
@@ -32241,54 +32253,48 @@
     </row>
     <row r="1000" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="B1000">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="C1000" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="D1000" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="F1000">
         <v>24</v>
       </c>
-      <c r="H1000" t="s">
-        <v>1985</v>
-      </c>
-      <c r="I1000" t="s">
-        <v>1985</v>
-      </c>
       <c r="J1000" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="K1000" t="s">
         <v>31</v>
       </c>
       <c r="L1000">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1001" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="B1001">
-        <v>165</v>
+        <v>1062</v>
       </c>
       <c r="C1001" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="D1001" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="F1001">
         <v>24</v>
       </c>
       <c r="J1001" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="K1001" t="s">
         <v>31</v>
@@ -32299,22 +32305,19 @@
     </row>
     <row r="1002" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="B1002">
-        <v>1062</v>
+        <v>3189</v>
       </c>
       <c r="C1002" t="s">
-        <v>1992</v>
-      </c>
-      <c r="D1002" t="s">
-        <v>1991</v>
-      </c>
-      <c r="F1002">
-        <v>24</v>
+        <v>1995</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>1996</v>
       </c>
       <c r="J1002" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="K1002" t="s">
         <v>31</v>
@@ -32325,51 +32328,60 @@
     </row>
     <row r="1003" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="B1003">
-        <v>3189</v>
+        <v>136</v>
       </c>
       <c r="C1003" t="s">
-        <v>1995</v>
-      </c>
-      <c r="E1003" t="s">
-        <v>1996</v>
+        <v>1998</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F1003">
+        <v>38</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>1997</v>
+      </c>
+      <c r="I1003" t="s">
+        <v>1997</v>
       </c>
       <c r="J1003" t="s">
-        <v>1990</v>
+        <v>1999</v>
       </c>
       <c r="K1003" t="s">
         <v>31</v>
       </c>
       <c r="L1003">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1004" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="B1004">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="C1004" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="D1004" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="F1004">
         <v>38</v>
       </c>
-      <c r="G1004" t="s">
-        <v>1997</v>
+      <c r="H1004" t="s">
+        <v>2000</v>
       </c>
       <c r="I1004" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="J1004" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="K1004" t="s">
         <v>31</v>
@@ -32380,28 +32392,28 @@
     </row>
     <row r="1005" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="B1005">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C1005" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="D1005" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="F1005">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1005" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="I1005" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="J1005" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="K1005" t="s">
         <v>31</v>
@@ -32412,74 +32424,71 @@
     </row>
     <row r="1006" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="B1006">
-        <v>148</v>
+        <v>3190</v>
       </c>
       <c r="C1006" t="s">
-        <v>2004</v>
-      </c>
-      <c r="D1006" t="s">
-        <v>2003</v>
-      </c>
-      <c r="F1006">
-        <v>40</v>
-      </c>
-      <c r="H1006" t="s">
-        <v>2003</v>
-      </c>
-      <c r="I1006" t="s">
-        <v>2003</v>
+        <v>2010</v>
       </c>
       <c r="J1006" t="s">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="K1006" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1006">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1007" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="B1007">
-        <v>3190</v>
+        <v>283</v>
       </c>
       <c r="C1007" t="s">
-        <v>2010</v>
+        <v>2013</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>2012</v>
+      </c>
+      <c r="F1007">
+        <v>40</v>
       </c>
       <c r="J1007" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="K1007" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1007">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1008" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B1008">
-        <v>283</v>
+        <v>378</v>
       </c>
       <c r="C1008" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="D1008" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F1008">
         <v>40</v>
       </c>
+      <c r="I1008" t="s">
+        <v>2015</v>
+      </c>
       <c r="J1008" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="K1008" t="s">
         <v>31</v>
@@ -32490,25 +32499,25 @@
     </row>
     <row r="1009" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B1009">
-        <v>378</v>
+        <v>529</v>
       </c>
       <c r="C1009" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D1009" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="F1009">
         <v>40</v>
       </c>
       <c r="I1009" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="J1009" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="K1009" t="s">
         <v>31</v>
@@ -32519,28 +32528,19 @@
     </row>
     <row r="1010" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B1010">
-        <v>529</v>
+        <v>3191</v>
       </c>
       <c r="C1010" t="s">
-        <v>2019</v>
-      </c>
-      <c r="D1010" t="s">
-        <v>2018</v>
-      </c>
-      <c r="F1010">
-        <v>40</v>
-      </c>
-      <c r="I1010" t="s">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="J1010" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="K1010" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1010">
         <v>10</v>
@@ -32548,97 +32548,103 @@
     </row>
     <row r="1011" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="B1011">
-        <v>3191</v>
+        <v>70</v>
       </c>
       <c r="C1011" t="s">
-        <v>2022</v>
+        <v>2025</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F1011">
+        <v>39</v>
+      </c>
+      <c r="G1011" t="s">
+        <v>2026</v>
       </c>
       <c r="J1011" t="s">
-        <v>2023</v>
+        <v>2027</v>
       </c>
       <c r="K1011" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1011">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1012" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
-        <v>2024</v>
+        <v>2028</v>
       </c>
       <c r="B1012">
-        <v>70</v>
+        <v>3194</v>
       </c>
       <c r="C1012" t="s">
-        <v>2025</v>
-      </c>
-      <c r="D1012" t="s">
-        <v>2024</v>
-      </c>
-      <c r="F1012">
-        <v>39</v>
-      </c>
-      <c r="G1012" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="J1012" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="K1012" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1012">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1013" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="B1013">
-        <v>3194</v>
+        <v>59</v>
       </c>
       <c r="C1013" t="s">
-        <v>2029</v>
+        <v>2032</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F1013">
+        <v>40</v>
+      </c>
+      <c r="G1013" t="s">
+        <v>2031</v>
+      </c>
+      <c r="H1013" t="s">
+        <v>2031</v>
       </c>
       <c r="J1013" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="K1013" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1013">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1014" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="B1014">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="C1014" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="D1014" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="F1014">
         <v>40</v>
       </c>
-      <c r="G1014" t="s">
-        <v>2031</v>
-      </c>
-      <c r="H1014" t="s">
-        <v>2031</v>
-      </c>
       <c r="J1014" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="K1014" t="s">
         <v>31</v>
@@ -32649,22 +32655,22 @@
     </row>
     <row r="1015" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="B1015">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="C1015" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="D1015" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="F1015">
         <v>40</v>
       </c>
       <c r="J1015" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
       <c r="K1015" t="s">
         <v>31</v>
@@ -32675,220 +32681,217 @@
     </row>
     <row r="1016" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="B1016">
-        <v>195</v>
+        <v>3196</v>
       </c>
       <c r="C1016" t="s">
-        <v>2038</v>
-      </c>
-      <c r="D1016" t="s">
-        <v>2037</v>
-      </c>
-      <c r="F1016">
-        <v>40</v>
+        <v>2041</v>
       </c>
       <c r="J1016" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="K1016" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1016">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1017" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
-        <v>2040</v>
+        <v>2021</v>
       </c>
       <c r="B1017">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="C1017" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="J1017" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="K1017" t="s">
         <v>15</v>
       </c>
       <c r="L1017">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1018" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
-        <v>2021</v>
+        <v>2045</v>
       </c>
       <c r="B1018">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="C1018" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="J1018" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="K1018" t="s">
         <v>15</v>
       </c>
       <c r="L1018">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1019" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="B1019">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="C1019" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="J1019" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="K1019" t="s">
         <v>15</v>
       </c>
       <c r="L1019">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1020" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
       <c r="B1020">
-        <v>3199</v>
+        <v>523</v>
       </c>
       <c r="C1020" t="s">
-        <v>2049</v>
+        <v>2052</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F1020">
+        <v>40</v>
       </c>
       <c r="J1020" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K1020" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1020">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1021" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="B1021">
-        <v>523</v>
+        <v>3200</v>
       </c>
       <c r="C1021" t="s">
-        <v>2052</v>
-      </c>
-      <c r="D1021" t="s">
-        <v>2051</v>
-      </c>
-      <c r="F1021">
-        <v>40</v>
+        <v>2055</v>
       </c>
       <c r="J1021" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="K1021" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1021">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1022" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="B1022">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="C1022" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="J1022" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="K1022" t="s">
         <v>15</v>
       </c>
       <c r="L1022">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1023" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
-        <v>2057</v>
+        <v>1766</v>
       </c>
       <c r="B1023">
-        <v>3201</v>
+        <v>69</v>
       </c>
       <c r="C1023" t="s">
-        <v>2058</v>
+        <v>2060</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F1023">
+        <v>38</v>
       </c>
       <c r="J1023" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="K1023" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1023">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1024" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
-        <v>1766</v>
+        <v>2062</v>
       </c>
       <c r="B1024">
-        <v>69</v>
+        <v>245</v>
       </c>
       <c r="C1024" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="D1024" t="s">
-        <v>1766</v>
+        <v>2062</v>
       </c>
       <c r="F1024">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J1024" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="K1024" t="s">
         <v>31</v>
       </c>
       <c r="L1024">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1025" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="B1025">
-        <v>245</v>
+        <v>2023</v>
       </c>
       <c r="C1025" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D1025" t="s">
-        <v>2062</v>
-      </c>
-      <c r="F1025">
-        <v>40</v>
+        <v>2066</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>2065</v>
       </c>
       <c r="J1025" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="K1025" t="s">
         <v>31</v>
@@ -32899,19 +32902,19 @@
     </row>
     <row r="1026" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="B1026">
-        <v>2023</v>
+        <v>2029</v>
       </c>
       <c r="C1026" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="H1026" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="J1026" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="K1026" t="s">
         <v>31</v>
@@ -32922,128 +32925,125 @@
     </row>
     <row r="1027" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="B1027">
-        <v>2029</v>
+        <v>3202</v>
       </c>
       <c r="C1027" t="s">
-        <v>2069</v>
-      </c>
-      <c r="H1027" t="s">
-        <v>2068</v>
+        <v>2072</v>
       </c>
       <c r="J1027" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="K1027" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1027">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1028" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="B1028">
-        <v>3202</v>
+        <v>81</v>
       </c>
       <c r="C1028" t="s">
-        <v>2072</v>
+        <v>2075</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F1028">
+        <v>39</v>
+      </c>
+      <c r="I1028" t="s">
+        <v>2074</v>
       </c>
       <c r="J1028" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="K1028" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1028">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1029" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
-        <v>2074</v>
+        <v>868</v>
       </c>
       <c r="B1029">
-        <v>81</v>
+        <v>3203</v>
       </c>
       <c r="C1029" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D1029" t="s">
-        <v>2074</v>
-      </c>
-      <c r="F1029">
-        <v>39</v>
-      </c>
-      <c r="I1029" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="J1029" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="K1029" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1029">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1030" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
-        <v>868</v>
+        <v>2079</v>
       </c>
       <c r="B1030">
-        <v>3203</v>
+        <v>3205</v>
       </c>
       <c r="C1030" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="J1030" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="K1030" t="s">
         <v>15</v>
       </c>
       <c r="L1030">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1031" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
-        <v>2079</v>
+        <v>2792</v>
       </c>
       <c r="B1031">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="C1031" t="s">
-        <v>2080</v>
+        <v>2793</v>
       </c>
       <c r="J1031" t="s">
-        <v>2081</v>
+        <v>2794</v>
       </c>
       <c r="K1031" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1031">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1032" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c r="B1032">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="C1032" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="J1032" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="K1032" t="s">
         <v>31</v>
@@ -33054,16 +33054,13 @@
     </row>
     <row r="1033" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="B1033">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="C1033" t="s">
-        <v>2797</v>
-      </c>
-      <c r="J1033" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
       <c r="K1033" t="s">
         <v>31</v>
@@ -33074,13 +33071,16 @@
     </row>
     <row r="1034" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="B1034">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="C1034" t="s">
-        <v>2800</v>
+        <v>2801</v>
+      </c>
+      <c r="J1034" t="s">
+        <v>2802</v>
       </c>
       <c r="K1034" t="s">
         <v>31</v>
@@ -33091,16 +33091,16 @@
     </row>
     <row r="1035" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
-        <v>2801</v>
+        <v>2803</v>
       </c>
       <c r="B1035">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="C1035" t="s">
-        <v>2802</v>
+        <v>2804</v>
       </c>
       <c r="J1035" t="s">
-        <v>2803</v>
+        <v>2805</v>
       </c>
       <c r="K1035" t="s">
         <v>31</v>
@@ -33111,16 +33111,16 @@
     </row>
     <row r="1036" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c r="B1036">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="C1036" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="J1036" t="s">
-        <v>2806</v>
+        <v>2323</v>
       </c>
       <c r="K1036" t="s">
         <v>31</v>
@@ -33131,19 +33131,19 @@
     </row>
     <row r="1037" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
-        <v>2807</v>
+        <v>2082</v>
       </c>
       <c r="B1037">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="C1037" t="s">
-        <v>2808</v>
+        <v>2083</v>
       </c>
       <c r="J1037" t="s">
-        <v>2323</v>
+        <v>2084</v>
       </c>
       <c r="K1037" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1037">
         <v>6</v>
@@ -33151,108 +33151,111 @@
     </row>
     <row r="1038" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
       <c r="B1038">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="C1038" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="J1038" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
       <c r="K1038" t="s">
         <v>15</v>
       </c>
       <c r="L1038">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1039" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="B1039">
-        <v>3213</v>
+        <v>1179</v>
       </c>
       <c r="C1039" t="s">
-        <v>2086</v>
+        <v>2089</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F1039">
+        <v>38</v>
       </c>
       <c r="J1039" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="K1039" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1039">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1040" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
       <c r="B1040">
-        <v>1179</v>
+        <v>3214</v>
       </c>
       <c r="C1040" t="s">
-        <v>2089</v>
-      </c>
-      <c r="D1040" t="s">
-        <v>2088</v>
-      </c>
-      <c r="F1040">
-        <v>38</v>
+        <v>2092</v>
       </c>
       <c r="J1040" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="K1040" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1040">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1041" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="B1041">
-        <v>3214</v>
+        <v>408</v>
       </c>
       <c r="C1041" t="s">
-        <v>2092</v>
+        <v>2095</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>2094</v>
+      </c>
+      <c r="F1041">
+        <v>40</v>
       </c>
       <c r="J1041" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="K1041" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1041">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1042" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
       <c r="B1042">
-        <v>408</v>
+        <v>2257</v>
       </c>
       <c r="C1042" t="s">
-        <v>2095</v>
-      </c>
-      <c r="D1042" t="s">
-        <v>2094</v>
-      </c>
-      <c r="F1042">
-        <v>40</v>
+        <v>2098</v>
+      </c>
+      <c r="I1042" t="s">
+        <v>2097</v>
       </c>
       <c r="J1042" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
       <c r="K1042" t="s">
         <v>31</v>
@@ -33263,114 +33266,111 @@
     </row>
     <row r="1043" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="B1043">
-        <v>2257</v>
+        <v>3215</v>
       </c>
       <c r="C1043" t="s">
-        <v>2098</v>
-      </c>
-      <c r="I1043" t="s">
-        <v>2097</v>
+        <v>2101</v>
       </c>
       <c r="J1043" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
       <c r="K1043" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1043">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1044" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="B1044">
-        <v>3215</v>
+        <v>269</v>
       </c>
       <c r="C1044" t="s">
-        <v>2101</v>
+        <v>2104</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F1044">
+        <v>40</v>
       </c>
       <c r="J1044" t="s">
-        <v>2102</v>
+        <v>2105</v>
       </c>
       <c r="K1044" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1044">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1045" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="B1045">
-        <v>269</v>
+        <v>3216</v>
       </c>
       <c r="C1045" t="s">
-        <v>2104</v>
-      </c>
-      <c r="D1045" t="s">
-        <v>2103</v>
-      </c>
-      <c r="F1045">
-        <v>40</v>
+        <v>2107</v>
       </c>
       <c r="J1045" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="K1045" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1045">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1046" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="B1046">
-        <v>3216</v>
+        <v>922</v>
       </c>
       <c r="C1046" t="s">
-        <v>2107</v>
+        <v>2110</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F1046">
+        <v>40</v>
       </c>
       <c r="J1046" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="K1046" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1046">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1047" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="B1047">
-        <v>922</v>
+        <v>3217</v>
       </c>
       <c r="C1047" t="s">
-        <v>2110</v>
-      </c>
-      <c r="D1047" t="s">
-        <v>2109</v>
-      </c>
-      <c r="F1047">
-        <v>40</v>
+        <v>2113</v>
       </c>
       <c r="J1047" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="K1047" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1047">
         <v>6</v>
@@ -33378,197 +33378,197 @@
     </row>
     <row r="1048" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="B1048">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="C1048" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="J1048" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="K1048" t="s">
         <v>15</v>
       </c>
       <c r="L1048">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1049" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="B1049">
-        <v>3218</v>
+        <v>452</v>
       </c>
       <c r="C1049" t="s">
-        <v>2116</v>
+        <v>2119</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F1049">
+        <v>40</v>
       </c>
       <c r="J1049" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="K1049" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1049">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1050" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="B1050">
-        <v>452</v>
+        <v>3219</v>
       </c>
       <c r="C1050" t="s">
-        <v>2119</v>
-      </c>
-      <c r="D1050" t="s">
-        <v>2118</v>
-      </c>
-      <c r="F1050">
-        <v>40</v>
+        <v>2122</v>
       </c>
       <c r="J1050" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="K1050" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1050">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1051" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="B1051">
-        <v>3219</v>
+        <v>556</v>
       </c>
       <c r="C1051" t="s">
-        <v>2122</v>
+        <v>2125</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>2124</v>
+      </c>
+      <c r="F1051">
+        <v>40</v>
       </c>
       <c r="J1051" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="K1051" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1051">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1052" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="B1052">
-        <v>556</v>
+        <v>3220</v>
       </c>
       <c r="C1052" t="s">
-        <v>2125</v>
-      </c>
-      <c r="D1052" t="s">
-        <v>2124</v>
-      </c>
-      <c r="F1052">
-        <v>40</v>
+        <v>2128</v>
       </c>
       <c r="J1052" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="K1052" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1052">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1053" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="B1053">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="C1053" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="J1053" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="K1053" t="s">
         <v>15</v>
       </c>
       <c r="L1053">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1054" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
       <c r="B1054">
-        <v>3221</v>
+        <v>40</v>
       </c>
       <c r="C1054" t="s">
-        <v>2131</v>
+        <v>2134</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F1054">
+        <v>40</v>
       </c>
       <c r="J1054" t="s">
-        <v>2132</v>
+        <v>2135</v>
       </c>
       <c r="K1054" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1054">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1055" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="B1055">
-        <v>40</v>
+        <v>3222</v>
       </c>
       <c r="C1055" t="s">
-        <v>2134</v>
-      </c>
-      <c r="D1055" t="s">
-        <v>2133</v>
-      </c>
-      <c r="F1055">
-        <v>40</v>
-      </c>
-      <c r="J1055" t="s">
-        <v>2135</v>
+        <v>2137</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>2136</v>
       </c>
       <c r="K1055" t="s">
         <v>31</v>
       </c>
       <c r="L1055">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1056" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>2136</v>
+        <v>2808</v>
       </c>
       <c r="B1056">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="C1056" t="s">
-        <v>2137</v>
-      </c>
-      <c r="E1056" t="s">
-        <v>2136</v>
+        <v>2809</v>
+      </c>
+      <c r="J1056" t="s">
+        <v>2810</v>
       </c>
       <c r="K1056" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1056">
         <v>7</v>
@@ -33576,114 +33576,114 @@
     </row>
     <row r="1057" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="B1057">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="C1057" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="J1057" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="K1057" t="s">
         <v>15</v>
       </c>
       <c r="L1057">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1058" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="B1058">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="C1058" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="J1058" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c r="K1058" t="s">
         <v>15</v>
       </c>
       <c r="L1058">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1059" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
-        <v>2815</v>
+        <v>2817</v>
       </c>
       <c r="B1059">
-        <v>3225</v>
+        <v>434</v>
       </c>
       <c r="C1059" t="s">
-        <v>2816</v>
+        <v>2818</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F1059">
+        <v>40</v>
       </c>
       <c r="J1059" t="s">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="K1059" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1059">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1060" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>2818</v>
+        <v>2138</v>
       </c>
       <c r="B1060">
-        <v>434</v>
+        <v>1189</v>
       </c>
       <c r="C1060" t="s">
-        <v>2819</v>
+        <v>2139</v>
       </c>
       <c r="D1060" t="s">
-        <v>2818</v>
+        <v>2138</v>
       </c>
       <c r="F1060">
         <v>40</v>
       </c>
+      <c r="H1060" t="s">
+        <v>2138</v>
+      </c>
       <c r="J1060" t="s">
-        <v>2820</v>
+        <v>2135</v>
       </c>
       <c r="K1060" t="s">
         <v>31</v>
       </c>
       <c r="L1060">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1061" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="B1061">
-        <v>1189</v>
+        <v>3226</v>
       </c>
       <c r="C1061" t="s">
-        <v>2139</v>
-      </c>
-      <c r="D1061" t="s">
-        <v>2138</v>
-      </c>
-      <c r="F1061">
-        <v>40</v>
-      </c>
-      <c r="H1061" t="s">
-        <v>2138</v>
+        <v>2141</v>
       </c>
       <c r="J1061" t="s">
-        <v>2135</v>
+        <v>2142</v>
       </c>
       <c r="K1061" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1061">
         <v>6</v>
@@ -33691,42 +33691,42 @@
     </row>
     <row r="1062" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
       <c r="B1062">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="C1062" t="s">
-        <v>2141</v>
+        <v>2144</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>2143</v>
       </c>
       <c r="J1062" t="s">
-        <v>2142</v>
+        <v>2145</v>
       </c>
       <c r="K1062" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1062">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1063" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="B1063">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="C1063" t="s">
-        <v>2144</v>
-      </c>
-      <c r="E1063" t="s">
-        <v>2143</v>
+        <v>2147</v>
       </c>
       <c r="J1063" t="s">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="K1063" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1063">
         <v>7</v>
@@ -33734,108 +33734,108 @@
     </row>
     <row r="1064" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>2146</v>
+        <v>2149</v>
       </c>
       <c r="B1064">
-        <v>3228</v>
+        <v>1278</v>
       </c>
       <c r="C1064" t="s">
-        <v>2147</v>
+        <v>2150</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F1064">
+        <v>40</v>
       </c>
       <c r="J1064" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="K1064" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1064">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1065" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="B1065">
-        <v>1278</v>
+        <v>3229</v>
       </c>
       <c r="C1065" t="s">
-        <v>2150</v>
-      </c>
-      <c r="D1065" t="s">
-        <v>2149</v>
-      </c>
-      <c r="F1065">
-        <v>40</v>
+        <v>2153</v>
       </c>
       <c r="J1065" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="K1065" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1065">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1066" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="B1066">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="C1066" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="J1066" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="K1066" t="s">
         <v>15</v>
       </c>
       <c r="L1066">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1067" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="B1067">
-        <v>3230</v>
+        <v>2009</v>
       </c>
       <c r="C1067" t="s">
-        <v>2156</v>
+        <v>2159</v>
+      </c>
+      <c r="H1067" t="s">
+        <v>2158</v>
       </c>
       <c r="J1067" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="K1067" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1067">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1068" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="B1068">
-        <v>2009</v>
+        <v>3231</v>
       </c>
       <c r="C1068" t="s">
-        <v>2159</v>
-      </c>
-      <c r="H1068" t="s">
-        <v>2158</v>
+        <v>2162</v>
       </c>
       <c r="J1068" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="K1068" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1068">
         <v>9</v>
@@ -33843,393 +33843,373 @@
     </row>
     <row r="1069" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="B1069">
-        <v>3231</v>
+        <v>1318</v>
       </c>
       <c r="C1069" t="s">
-        <v>2162</v>
+        <v>2165</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F1069">
+        <v>40</v>
       </c>
       <c r="J1069" t="s">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="K1069" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1069">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1070" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="B1070">
-        <v>1318</v>
+        <v>3232</v>
       </c>
       <c r="C1070" t="s">
-        <v>2165</v>
-      </c>
-      <c r="D1070" t="s">
-        <v>2164</v>
-      </c>
-      <c r="F1070">
-        <v>40</v>
+        <v>2168</v>
       </c>
       <c r="J1070" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="K1070" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1070">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1071" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="B1071">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="C1071" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
       <c r="J1071" t="s">
-        <v>2169</v>
+        <v>2172</v>
       </c>
       <c r="K1071" t="s">
         <v>15</v>
       </c>
       <c r="L1071">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1072" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="B1072">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="C1072" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="J1072" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="K1072" t="s">
         <v>15</v>
       </c>
       <c r="L1072">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1073" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="B1073">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="C1073" t="s">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="J1073" t="s">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="K1073" t="s">
         <v>15</v>
       </c>
       <c r="L1073">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1074" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="B1074">
-        <v>3235</v>
+        <v>2010</v>
       </c>
       <c r="C1074" t="s">
-        <v>2177</v>
+        <v>2180</v>
+      </c>
+      <c r="H1074" t="s">
+        <v>2179</v>
       </c>
       <c r="J1074" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="K1074" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1074">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1075" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="B1075">
-        <v>2010</v>
+        <v>3236</v>
       </c>
       <c r="C1075" t="s">
-        <v>2180</v>
-      </c>
-      <c r="H1075" t="s">
-        <v>2179</v>
+        <v>2183</v>
       </c>
       <c r="J1075" t="s">
-        <v>2181</v>
+        <v>2184</v>
       </c>
       <c r="K1075" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1075">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1076" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="B1076">
-        <v>3236</v>
+        <v>2011</v>
       </c>
       <c r="C1076" t="s">
-        <v>2183</v>
+        <v>2186</v>
+      </c>
+      <c r="H1076" t="s">
+        <v>2185</v>
       </c>
       <c r="J1076" t="s">
-        <v>2184</v>
+        <v>2187</v>
       </c>
       <c r="K1076" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="L1076">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1077" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="B1077">
-        <v>2011</v>
+        <v>3237</v>
       </c>
       <c r="C1077" t="s">
-        <v>2186</v>
-      </c>
-      <c r="H1077" t="s">
-        <v>2185</v>
+        <v>2189</v>
       </c>
       <c r="J1077" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="K1077" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1077">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1078" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="B1078">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="C1078" t="s">
-        <v>2189</v>
+        <v>2192</v>
       </c>
       <c r="J1078" t="s">
-        <v>2190</v>
+        <v>2193</v>
       </c>
       <c r="K1078" t="s">
         <v>15</v>
       </c>
       <c r="L1078">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1079" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="B1079">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="C1079" t="s">
-        <v>2192</v>
+        <v>2195</v>
       </c>
       <c r="J1079" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="K1079" t="s">
         <v>15</v>
       </c>
       <c r="L1079">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1080" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="B1080">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="C1080" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="J1080" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="K1080" t="s">
         <v>15</v>
       </c>
       <c r="L1080">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1081" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="B1081">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="C1081" t="s">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="J1081" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="K1081" t="s">
         <v>15</v>
       </c>
       <c r="L1081">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1082" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="B1082">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="C1082" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
       <c r="J1082" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="K1082" t="s">
         <v>15</v>
       </c>
       <c r="L1082">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1083" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="B1083">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="C1083" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
       <c r="J1083" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="K1083" t="s">
         <v>15</v>
       </c>
       <c r="L1083">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1084" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="B1084">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="C1084" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="J1084" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="K1084" t="s">
         <v>15</v>
       </c>
       <c r="L1084">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1085" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="B1085">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="C1085" t="s">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="J1085" t="s">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="K1085" t="s">
         <v>15</v>
       </c>
       <c r="L1085">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1086" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1086" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="B1086">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="C1086" t="s">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="J1086" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="K1086" t="s">
         <v>15</v>
       </c>
       <c r="L1086">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1087" t="s">
-        <v>2215</v>
-      </c>
-      <c r="B1087">
-        <v>3246</v>
-      </c>
-      <c r="C1087" t="s">
-        <v>2216</v>
-      </c>
-      <c r="J1087" t="s">
-        <v>2217</v>
-      </c>
-      <c r="K1087" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1087">
         <v>9</v>
       </c>
     </row>

--- a/conceptlist.xlsx
+++ b/conceptlist.xlsx
@@ -8809,9 +8809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1086"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
-      <selection activeCell="D768" sqref="D768"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
